--- a/project/fractal-parallel-tasks/test-plan-2.xlsx
+++ b/project/fractal-parallel-tasks/test-plan-2.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="image" sheetId="1" r:id="rId1"/>
+    <sheet name="image-size" sheetId="1" r:id="rId1"/>
     <sheet name="rectangle" sheetId="2" r:id="rId2"/>
     <sheet name="iterations" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -337,15 +337,6 @@
     </r>
   </si>
   <si>
-    <t>Fri May 22 16:03:56 EEST 2020</t>
-  </si>
-  <si>
-    <t>Fri May 22 15:36:13 EEST 2020</t>
-  </si>
-  <si>
-    <t>Mon May 25 19:02:11 EEST 2020</t>
-  </si>
-  <si>
     <t>imageSize : 1920x1440</t>
   </si>
   <si>
@@ -359,9 +350,6 @@
   </si>
   <si>
     <t>imageSize : 2560x1920</t>
-  </si>
-  <si>
-    <t>Tue May 26 14:08:18 EEST 2020</t>
   </si>
   <si>
     <t>image-1</t>
@@ -432,12 +420,24 @@
   <si>
     <t>iterations : 1150</t>
   </si>
+  <si>
+    <t>Wed Jun 10 16:49:22 EEST 2020</t>
+  </si>
+  <si>
+    <t>Wed Jun 10 17:01:09 EEST 2020</t>
+  </si>
+  <si>
+    <t>Wed Jun 10 17:29:25 EEST 2020</t>
+  </si>
+  <si>
+    <t>Wed Jun 10 18:30:57 EEST 2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,20 +520,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
@@ -597,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,15 +604,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -770,7 +751,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$7:$D$19</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -818,7 +799,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>image!$K$7:$K$19</c:f>
+              <c:f>'image-size'!$K$7:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -826,40 +807,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8862836308775459</c:v>
+                  <c:v>1.9100187326400104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4981347633480997</c:v>
+                  <c:v>3.6768216861477243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9304962208347023</c:v>
+                  <c:v>5.2455206670214656</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2152029826014914</c:v>
+                  <c:v>6.6792410210074546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5527309338031712</c:v>
+                  <c:v>8.0635396782110718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.6177484204480184</c:v>
+                  <c:v>9.4924558587479932</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1820685434516527</c:v>
+                  <c:v>10.522775800711743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.012345679012345</c:v>
+                  <c:v>11.141296156744536</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.532467532467532</c:v>
+                  <c:v>11.78987240829346</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.209189391109451</c:v>
+                  <c:v>12.346137787056367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.093171880255634</c:v>
+                  <c:v>12.856086956521739</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.701497860199714</c:v>
+                  <c:v>13.28943820224719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -886,7 +867,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$7:$D$19</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -934,7 +915,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>image!$D$7:$D$19</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1002,7 +983,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$7:$D$19</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1050,7 +1031,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>image!$K$22:$K$34</c:f>
+              <c:f>'image-size'!$K$22:$K$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1058,40 +1039,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9127425534544555</c:v>
+                  <c:v>2.006120178041543</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7431370177772405</c:v>
+                  <c:v>3.8860511447140662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4154492170413784</c:v>
+                  <c:v>5.6825540856774444</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9547241882934498</c:v>
+                  <c:v>7.4315782899256764</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.687671040628727</c:v>
+                  <c:v>9.0560164396072764</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4481074481074483</c:v>
+                  <c:v>10.613415395593613</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.197512560744585</c:v>
+                  <c:v>12.121740016299919</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.253226686057081</c:v>
+                  <c:v>13.502837040399456</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.160912287027855</c:v>
+                  <c:v>13.822839219330856</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.242223692918596</c:v>
+                  <c:v>14.335783132530121</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.643790849673202</c:v>
+                  <c:v>14.737057220708447</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.702164768646764</c:v>
+                  <c:v>15.384923713472977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1118,7 +1099,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$7:$D$19</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1166,7 +1147,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>image!$K$37:$K$49</c:f>
+              <c:f>'image-size'!$K$37:$K$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1174,40 +1155,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.930931288721931</c:v>
+                  <c:v>1.9879023914392977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.82540057204743</c:v>
+                  <c:v>3.9198385404523197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3633054311855171</c:v>
+                  <c:v>5.7677216004116811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0982892770649766</c:v>
+                  <c:v>7.4899760539065543</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9249433106575964</c:v>
+                  <c:v>9.2702553675431645</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.359189351782224</c:v>
+                  <c:v>10.942317861937111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.182441756636091</c:v>
+                  <c:v>12.639554553143501</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.250939235543941</c:v>
+                  <c:v>14.124921235034657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.415445293859863</c:v>
+                  <c:v>14.290002124946877</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.760513435221256</c:v>
+                  <c:v>14.761290676617461</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.96836902800659</c:v>
+                  <c:v>15.309903244166192</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.040800870923462</c:v>
+                  <c:v>15.854010726704781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1234,7 +1215,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$7:$D$19</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1282,7 +1263,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>image!$K$52:$K$64</c:f>
+              <c:f>'image-size'!$K$52:$K$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1290,40 +1271,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9304968233747521</c:v>
+                  <c:v>1.9841325312232179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6998829953198129</c:v>
+                  <c:v>3.9537243523316064</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4014120594431478</c:v>
+                  <c:v>5.781525033337374</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0570425364140865</c:v>
+                  <c:v>7.5562139552569869</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5950241003152978</c:v>
+                  <c:v>9.3055355017463075</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.162510176972191</c:v>
+                  <c:v>11.049487975534035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.461555190411753</c:v>
+                  <c:v>12.641961563949636</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.2653340918494</c:v>
+                  <c:v>14.150189888440542</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.23599174014957</c:v>
+                  <c:v>14.530879619755645</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.718727404193782</c:v>
+                  <c:v>14.934022232660091</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.980752792760928</c:v>
+                  <c:v>15.470286752303101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.363908909212041</c:v>
+                  <c:v>16.054061332345913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1339,11 +1320,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1687258784"/>
-        <c:axId val="1687261504"/>
+        <c:axId val="1415006048"/>
+        <c:axId val="1414991904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1687258784"/>
+        <c:axId val="1415006048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,7 +1428,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1687261504"/>
+        <c:crossAx val="1414991904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1455,7 +1436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1687261504"/>
+        <c:axId val="1414991904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,7 +1544,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1687258784"/>
+        <c:crossAx val="1415006048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1744,7 +1725,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$7:$D$19</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1800,37 +1781,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.9806255713039915</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.9343406937429561</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.7697722820763957</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.498707188034528</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.2005466347796379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10.815881576682541</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>12.455236207466138</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>13.641363340328533</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>13.712810067651123</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>14.301646309081253</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>14.75963044159098</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>15.057911973799824</c:v>
@@ -1860,7 +1841,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$7:$D$19</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1908,7 +1889,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>image!$D$7:$D$19</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1976,7 +1957,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$7:$D$19</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2032,37 +2013,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.9783767372824179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.9035023495427379</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.7245627049820396</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.5069120884747322</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.2241270839886749</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10.892425987147581</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>12.522847625555176</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>13.723732859081762</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>14.061331159489786</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>14.456468152238218</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>15.098084646277417</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>15.655063797981954</c:v>
@@ -2092,7 +2073,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$7:$D$19</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2148,37 +2129,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.9695109931268315</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.8737409854992548</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.712227473700259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.4766022549639137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.2159065286460997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10.866942208686824</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>12.500987070763243</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>13.656460725350829</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>14.045548266166822</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>14.523306521949801</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>15.126774779624521</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>15.627863325106885</c:v>
@@ -2208,7 +2189,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$7:$D$19</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2264,37 +2245,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.972322803377798</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.8865523673250375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.7156062413692688</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7.5037245325834938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9.2049986383854279</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>10.919454414931803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>12.547835591577471</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>13.604454084028353</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>14.078859681599408</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>14.562060217318463</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>15.143034918738644</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>15.780884450784594</c:v>
@@ -2313,11 +2294,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1863578512"/>
-        <c:axId val="1863568720"/>
+        <c:axId val="1455026960"/>
+        <c:axId val="1455034032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1863578512"/>
+        <c:axId val="1455026960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,7 +2402,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863568720"/>
+        <c:crossAx val="1455034032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2429,7 +2410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1863568720"/>
+        <c:axId val="1455034032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2537,7 +2518,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863578512"/>
+        <c:crossAx val="1455026960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2715,7 +2696,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$22:$D$34</c:f>
+              <c:f>'image-size'!$D$22:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2771,37 +2752,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.99031278565199576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.98358517343573904</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.96162871367939928</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.93733839850431599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.92005466347796383</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.90132346472354508</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.88965972910472413</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.85258520877053334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.76182278153617355</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.71508231545406264</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.67089229279959006</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.62741299890832603</c:v>
@@ -2831,7 +2812,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$22:$D$34</c:f>
+              <c:f>'image-size'!$D$22:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2887,37 +2868,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.98918836864120896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.97587558738568447</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.9540937841636733</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.93836401105934153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.92241270839886746</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.90770216559563177</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.89448911611108406</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.85773330369261014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.78118506441609925</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.72282340761191088</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.68627657483079174</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.65229432491591477</c:v>
@@ -2947,7 +2928,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$22:$D$34</c:f>
+              <c:f>'image-size'!$D$22:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3003,37 +2984,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.98475549656341577</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.96843524637481371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.95203791228337653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.93457528187048922</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.92159065286460995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.90557851739056872</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.89292764791166024</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.85352879533442683</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.78030823700926788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.72616532609749007</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.6875806718011146</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.65116097187945354</c:v>
@@ -3063,7 +3044,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$22:$D$34</c:f>
+              <c:f>'image-size'!$D$22:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3119,37 +3100,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.98616140168889899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.97163809183125938</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.95260104022821146</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.93796556657293673</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.92049986383854276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.90995453457765019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.89627397082696214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.85027838025177205</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.78215887119996708</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.72810301086592311</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.68831976903357472</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.65753685211602475</c:v>
@@ -3168,11 +3149,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1863571984"/>
-        <c:axId val="1863569264"/>
+        <c:axId val="1455025328"/>
+        <c:axId val="1455022608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1863571984"/>
+        <c:axId val="1455025328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3276,7 +3257,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863569264"/>
+        <c:crossAx val="1455022608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3284,7 +3265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1863569264"/>
+        <c:axId val="1455022608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3391,7 +3372,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863571984"/>
+        <c:crossAx val="1455025328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3523,6 +3504,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3578,7 +3560,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$52:$D$64</c:f>
+              <c:f>'image-size'!$D$52:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3634,37 +3616,37 @@
                   <c:v>188510</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>190354</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>191656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>196032</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>201112</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>204890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>209148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>211890</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>221104</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>247446</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>263620</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>280984</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>300456</c:v>
@@ -3694,7 +3676,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$52:$D$64</c:f>
+              <c:f>'image-size'!$D$52:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3750,37 +3732,37 @@
                   <c:v>293235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>296440</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>300484</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>307344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>312496</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>317900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>323052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>327824</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>341872</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>375372</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>405680</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>427284</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>449544</c:v>
@@ -3810,7 +3792,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$52:$D$64</c:f>
+              <c:f>'image-size'!$D$52:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3866,37 +3848,37 @@
                   <c:v>449598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>456558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>464252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>472248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>481072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>487850</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>496476</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>503510</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>526752</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>576180</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>619140</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>653884</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>690456</c:v>
@@ -3926,7 +3908,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$52:$D$64</c:f>
+              <c:f>'image-size'!$D$52:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3982,37 +3964,37 @@
                   <c:v>608432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>616970</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>626192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>638706</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>648672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>660980</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>668640</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>678846</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>715568</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>777888</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>835640</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>883938</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>925320</c:v>
@@ -4031,11 +4013,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1863569808"/>
-        <c:axId val="1863574160"/>
+        <c:axId val="1455027504"/>
+        <c:axId val="1455025872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1863569808"/>
+        <c:axId val="1455027504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4072,6 +4054,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4138,7 +4121,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863574160"/>
+        <c:crossAx val="1455025872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4146,7 +4129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1863574160"/>
+        <c:axId val="1455025872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4193,6 +4176,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4253,7 +4237,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863569808"/>
+        <c:crossAx val="1455027504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4267,6 +4251,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4430,7 +4415,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$22:$D$34</c:f>
+              <c:f>'image-size'!$D$22:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4478,7 +4463,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>image!$L$7:$L$19</c:f>
+              <c:f>'image-size'!$L$7:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4486,40 +4471,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94314181543877296</c:v>
+                  <c:v>0.95500936632000522</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87453369083702492</c:v>
+                  <c:v>0.91920542153693108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82174937013911709</c:v>
+                  <c:v>0.87425344450357756</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77690037282518642</c:v>
+                  <c:v>0.83490512762593183</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75527309338031712</c:v>
+                  <c:v>0.80635396782110713</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71814570170400149</c:v>
+                  <c:v>0.7910379882289994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65586203881797522</c:v>
+                  <c:v>0.75162684290798165</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62577160493827155</c:v>
+                  <c:v>0.69633100979653351</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58513708513708507</c:v>
+                  <c:v>0.6549929115718589</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.56045946955547254</c:v>
+                  <c:v>0.61730688935281841</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45878054001161972</c:v>
+                  <c:v>0.58436758893280638</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.44589574417498806</c:v>
+                  <c:v>0.55372659176029959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4546,7 +4531,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$22:$D$34</c:f>
+              <c:f>'image-size'!$D$22:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4594,7 +4579,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>image!$L$22:$L$34</c:f>
+              <c:f>'image-size'!$L$22:$L$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4602,40 +4587,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95637127672722777</c:v>
+                  <c:v>1.0030600890207715</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.93578425444431013</c:v>
+                  <c:v>0.97151278617851655</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90257486950689636</c:v>
+                  <c:v>0.94709234761290739</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86934052353668123</c:v>
+                  <c:v>0.92894728624070955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86876710406287272</c:v>
+                  <c:v>0.90560164396072762</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78734228734228739</c:v>
+                  <c:v>0.8844512829661344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72839375433889886</c:v>
+                  <c:v>0.86583857259285135</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70332666787856757</c:v>
+                  <c:v>0.84392731502496598</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62005068261265861</c:v>
+                  <c:v>0.76793551218504752</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.51211118464592986</c:v>
+                  <c:v>0.71678915662650611</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.57471776589423651</c:v>
+                  <c:v>0.66986623730492945</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.52925686536028183</c:v>
+                  <c:v>0.64103848806137409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4662,7 +4647,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$22:$D$34</c:f>
+              <c:f>'image-size'!$D$22:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4710,7 +4695,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>image!$L$37:$L$49</c:f>
+              <c:f>'image-size'!$L$37:$L$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4718,40 +4703,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96546564436096549</c:v>
+                  <c:v>0.99395119571964885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9563501430118575</c:v>
+                  <c:v>0.97995963511307993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89388423853091947</c:v>
+                  <c:v>0.96128693340194682</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88728615963312207</c:v>
+                  <c:v>0.93624700673831929</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89249433106575959</c:v>
+                  <c:v>0.92702553675431643</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86326577931518533</c:v>
+                  <c:v>0.91185982182809255</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7987458397597208</c:v>
+                  <c:v>0.90282532522453585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70318370222149629</c:v>
+                  <c:v>0.88280757718966607</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74530251632554789</c:v>
+                  <c:v>0.79388900694149322</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.68802567176106277</c:v>
+                  <c:v>0.73806453383087312</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.58947131945484499</c:v>
+                  <c:v>0.69590469291664503</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.54336670295514422</c:v>
+                  <c:v>0.66058378027936582</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4778,7 +4763,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$22:$D$34</c:f>
+              <c:f>'image-size'!$D$22:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4826,7 +4811,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>image!$L$52:$L$64</c:f>
+              <c:f>'image-size'!$L$52:$L$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4834,40 +4819,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96524841168737607</c:v>
+                  <c:v>0.99206626561160893</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92497074882995323</c:v>
+                  <c:v>0.98843108808290159</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90023534324052468</c:v>
+                  <c:v>0.96358750555622896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88213031705176081</c:v>
+                  <c:v>0.94452674440712336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85950241003152983</c:v>
+                  <c:v>0.93055355017463071</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8468758480810159</c:v>
+                  <c:v>0.92079066462783621</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81868251360083943</c:v>
+                  <c:v>0.90299725456783109</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76658338074058752</c:v>
+                  <c:v>0.88438686802753386</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.73533287445275386</c:v>
+                  <c:v>0.80727108998642472</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.68593637020968912</c:v>
+                  <c:v>0.74670111163300457</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.63548876330731485</c:v>
+                  <c:v>0.70319485237741375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.59849620455050168</c:v>
+                  <c:v>0.66891922218107969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4883,11 +4868,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1687259328"/>
-        <c:axId val="1687259872"/>
+        <c:axId val="1414994080"/>
+        <c:axId val="1255109920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1687259328"/>
+        <c:axId val="1414994080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4991,7 +4976,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1687259872"/>
+        <c:crossAx val="1255109920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4999,7 +4984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1687259872"/>
+        <c:axId val="1255109920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5106,7 +5091,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1687259328"/>
+        <c:crossAx val="1414994080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5288,7 +5273,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$52:$D$64</c:f>
+              <c:f>'image-size'!$D$52:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5336,48 +5321,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>image!$M$7:$M$19</c:f>
+              <c:f>'image-size'!$M$7:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>30007</c:v>
+                  <c:v>29569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31816</c:v>
+                  <c:v>30962</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34312</c:v>
+                  <c:v>32168</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36516</c:v>
+                  <c:v>33822</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38624</c:v>
+                  <c:v>35416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39730</c:v>
+                  <c:v>36670</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41784</c:v>
+                  <c:v>37380</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45752</c:v>
+                  <c:v>39340</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47952</c:v>
+                  <c:v>42464</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51282</c:v>
+                  <c:v>45144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53540</c:v>
+                  <c:v>47900</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65406</c:v>
+                  <c:v>50600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>67296</c:v>
+                  <c:v>53400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5404,7 +5389,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$52:$D$64</c:f>
+              <c:f>'image-size'!$D$52:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5452,48 +5437,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>image!$M$22:$M$34</c:f>
+              <c:f>'image-size'!$M$22:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>123808</c:v>
+                  <c:v>118987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129456</c:v>
+                  <c:v>118624</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132304</c:v>
+                  <c:v>122476</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137172</c:v>
+                  <c:v>125634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142416</c:v>
+                  <c:v>128088</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>142510</c:v>
+                  <c:v>131390</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>157248</c:v>
+                  <c:v>134532</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>169974</c:v>
+                  <c:v>137424</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>176032</c:v>
+                  <c:v>140992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>199674</c:v>
+                  <c:v>154944</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>241760</c:v>
+                  <c:v>166000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>215424</c:v>
+                  <c:v>177628</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>233928</c:v>
+                  <c:v>185616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5520,7 +5505,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$52:$D$64</c:f>
+              <c:f>'image-size'!$D$52:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5568,48 +5553,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>image!$M$37:$M$49</c:f>
+              <c:f>'image-size'!$M$37:$M$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>275513</c:v>
+                  <c:v>268995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>285368</c:v>
+                  <c:v>270632</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>288088</c:v>
+                  <c:v>274496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>308220</c:v>
+                  <c:v>279828</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>310512</c:v>
+                  <c:v>287312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>308700</c:v>
+                  <c:v>290170</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>319152</c:v>
+                  <c:v>294996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>344932</c:v>
+                  <c:v>297948</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>391808</c:v>
+                  <c:v>304704</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>369666</c:v>
+                  <c:v>338832</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>400440</c:v>
+                  <c:v>364460</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>467390</c:v>
+                  <c:v>386540</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>507048</c:v>
+                  <c:v>407208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5636,7 +5621,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>image!$D$52:$D$64</c:f>
+              <c:f>'image-size'!$D$52:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5684,48 +5669,48 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>image!$M$52:$M$64</c:f>
+              <c:f>'image-size'!$M$52:$M$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>474325</c:v>
+                  <c:v>476918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>491402</c:v>
+                  <c:v>480732</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512800</c:v>
+                  <c:v>482500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>526890</c:v>
+                  <c:v>494940</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>537704</c:v>
+                  <c:v>504928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>551860</c:v>
+                  <c:v>512510</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>560088</c:v>
+                  <c:v>517944</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>579376</c:v>
+                  <c:v>528150</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>618752</c:v>
+                  <c:v>539264</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>645048</c:v>
+                  <c:v>590778</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>691500</c:v>
+                  <c:v>638700</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>746394</c:v>
+                  <c:v>678216</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>792528</c:v>
+                  <c:v>712968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5741,11 +5726,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1687262592"/>
-        <c:axId val="1687263136"/>
+        <c:axId val="1255113728"/>
+        <c:axId val="1415004960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1687262592"/>
+        <c:axId val="1255113728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5849,7 +5834,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1687263136"/>
+        <c:crossAx val="1415004960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5857,7 +5842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1687263136"/>
+        <c:axId val="1415004960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5965,7 +5950,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1687262592"/>
+        <c:crossAx val="1255113728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6599,11 +6584,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1687248992"/>
-        <c:axId val="1687248448"/>
+        <c:axId val="1455024240"/>
+        <c:axId val="1455033488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1687248992"/>
+        <c:axId val="1455024240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6707,7 +6692,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1687248448"/>
+        <c:crossAx val="1455033488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6715,7 +6700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1687248448"/>
+        <c:axId val="1455033488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6823,7 +6808,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1687248992"/>
+        <c:crossAx val="1455024240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7343,11 +7328,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1687249536"/>
-        <c:axId val="1662552448"/>
+        <c:axId val="1455023696"/>
+        <c:axId val="1455036752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1687249536"/>
+        <c:axId val="1455023696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7451,7 +7436,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1662552448"/>
+        <c:crossAx val="1455036752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7459,7 +7444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1662552448"/>
+        <c:axId val="1455036752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7566,7 +7551,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1687249536"/>
+        <c:crossAx val="1455023696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8091,11 +8076,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1863575792"/>
-        <c:axId val="1863576336"/>
+        <c:axId val="1455037840"/>
+        <c:axId val="1455024784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1863575792"/>
+        <c:axId val="1455037840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8199,7 +8184,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863576336"/>
+        <c:crossAx val="1455024784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8207,7 +8192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1863576336"/>
+        <c:axId val="1455024784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8315,7 +8300,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863575792"/>
+        <c:crossAx val="1455037840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8950,11 +8935,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1863573072"/>
-        <c:axId val="1863576880"/>
+        <c:axId val="1455032400"/>
+        <c:axId val="1455031856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1863573072"/>
+        <c:axId val="1455032400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9058,7 +9043,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863576880"/>
+        <c:crossAx val="1455031856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9066,7 +9051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1863576880"/>
+        <c:axId val="1455031856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9174,7 +9159,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863573072"/>
+        <c:crossAx val="1455032400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9689,11 +9674,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1863574704"/>
-        <c:axId val="1863568176"/>
+        <c:axId val="1455037296"/>
+        <c:axId val="1455028592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1863574704"/>
+        <c:axId val="1455037296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9797,7 +9782,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863568176"/>
+        <c:crossAx val="1455028592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9805,7 +9790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1863568176"/>
+        <c:axId val="1455028592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9912,7 +9897,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863574704"/>
+        <c:crossAx val="1455037296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10038,6 +10023,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10430,11 +10416,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1863577424"/>
-        <c:axId val="1863577968"/>
+        <c:axId val="1455035664"/>
+        <c:axId val="1455029136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1863577424"/>
+        <c:axId val="1455035664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10471,6 +10457,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10537,7 +10524,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863577968"/>
+        <c:crossAx val="1455029136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10545,7 +10532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1863577968"/>
+        <c:axId val="1455029136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10592,6 +10579,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10652,7 +10640,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1863577424"/>
+        <c:crossAx val="1455035664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10666,6 +10654,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18279,8 +18268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18298,12 +18287,12 @@
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -18319,10 +18308,10 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="18"/>
+      <c r="A6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
@@ -18354,38 +18343,38 @@
         <v>9</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="A7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="13"/>
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="9">
-        <v>30250</v>
-      </c>
-      <c r="F7" s="9">
-        <v>30751</v>
-      </c>
-      <c r="G7" s="9">
-        <v>30007</v>
-      </c>
-      <c r="H7" s="9">
-        <v>30526</v>
-      </c>
-      <c r="I7" s="9">
-        <v>31256</v>
+      <c r="E7" s="1">
+        <v>32302</v>
+      </c>
+      <c r="F7" s="1">
+        <v>31760</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30196</v>
+      </c>
+      <c r="H7" s="1">
+        <v>29664</v>
+      </c>
+      <c r="I7">
+        <v>29569</v>
       </c>
       <c r="J7" s="7">
         <f>MIN(E7:I7)</f>
-        <v>30007</v>
+        <v>29569</v>
       </c>
       <c r="K7" s="7">
         <v>1</v>
@@ -18395,42 +18384,50 @@
       </c>
       <c r="M7" s="7">
         <f t="shared" ref="M7:M19" si="0">D7*J7</f>
-        <v>30007</v>
+        <v>29569</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="13"/>
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>2</v>
       </c>
-      <c r="E8" s="9">
-        <v>15908</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="E8" s="1">
+        <v>15578</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15911</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15481</v>
+      </c>
+      <c r="H8" s="1">
+        <v>15764</v>
+      </c>
+      <c r="I8">
+        <v>15545</v>
+      </c>
       <c r="J8" s="7">
         <f t="shared" ref="J8:J17" si="1">MIN(E8:I8)</f>
-        <v>15908</v>
+        <v>15481</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" ref="K8:K19" si="2">$J$7/J8</f>
-        <v>1.8862836308775459</v>
+        <v>1.9100187326400104</v>
       </c>
       <c r="L8" s="7">
         <f t="shared" ref="L8:L19" si="3">K8/D8</f>
-        <v>0.94314181543877296</v>
+        <v>0.95500936632000522</v>
       </c>
       <c r="M8" s="7">
         <f t="shared" si="0"/>
-        <v>31816</v>
+        <v>30962</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -18438,31 +18435,39 @@
       <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>4</v>
       </c>
-      <c r="E9" s="9">
-        <v>8578</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="E9" s="1">
+        <v>8137</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8299</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8042</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8184</v>
+      </c>
+      <c r="I9">
+        <v>8251</v>
+      </c>
       <c r="J9" s="7">
         <f t="shared" si="1"/>
-        <v>8578</v>
+        <v>8042</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="2"/>
-        <v>3.4981347633480997</v>
+        <v>3.6768216861477243</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="3"/>
-        <v>0.87453369083702492</v>
+        <v>0.91920542153693108</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="0"/>
-        <v>34312</v>
+        <v>32168</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -18470,31 +18475,39 @@
       <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>6</v>
       </c>
-      <c r="E10" s="9">
-        <v>6086</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="E10" s="1">
+        <v>5719</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5703</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5854</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5637</v>
+      </c>
+      <c r="I10">
+        <v>5641</v>
+      </c>
       <c r="J10" s="7">
         <f t="shared" si="1"/>
-        <v>6086</v>
+        <v>5637</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="2"/>
-        <v>4.9304962208347023</v>
+        <v>5.2455206670214656</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="3"/>
-        <v>0.82174937013911709</v>
+        <v>0.87425344450357756</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="0"/>
-        <v>36516</v>
+        <v>33822</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -18502,31 +18515,39 @@
       <c r="C11" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>8</v>
       </c>
-      <c r="E11" s="9">
-        <v>4828</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="E11" s="1">
+        <v>4485</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4468</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4476</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4515</v>
+      </c>
+      <c r="I11">
+        <v>4427</v>
+      </c>
       <c r="J11" s="7">
         <f t="shared" si="1"/>
-        <v>4828</v>
+        <v>4427</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="2"/>
-        <v>6.2152029826014914</v>
+        <v>6.6792410210074546</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" si="3"/>
-        <v>0.77690037282518642</v>
+        <v>0.83490512762593183</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="0"/>
-        <v>38624</v>
+        <v>35416</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -18534,31 +18555,39 @@
       <c r="C12" s="6">
         <v>6</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>10</v>
       </c>
-      <c r="E12" s="9">
-        <v>3973</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="E12" s="1">
+        <v>3744</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3667</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3720</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3701</v>
+      </c>
+      <c r="I12">
+        <v>3715</v>
+      </c>
       <c r="J12" s="7">
         <f t="shared" si="1"/>
-        <v>3973</v>
+        <v>3667</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="2"/>
-        <v>7.5527309338031712</v>
+        <v>8.0635396782110718</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" si="3"/>
-        <v>0.75527309338031712</v>
+        <v>0.80635396782110713</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" si="0"/>
-        <v>39730</v>
+        <v>36670</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -18566,31 +18595,39 @@
       <c r="C13" s="6">
         <v>7</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>12</v>
       </c>
-      <c r="E13" s="9">
-        <v>3482</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="E13" s="1">
+        <v>3201</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3211</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3115</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3237</v>
+      </c>
+      <c r="I13">
+        <v>3172</v>
+      </c>
       <c r="J13" s="7">
         <f t="shared" si="1"/>
-        <v>3482</v>
+        <v>3115</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="2"/>
-        <v>8.6177484204480184</v>
+        <v>9.4924558587479932</v>
       </c>
       <c r="L13" s="7">
         <f t="shared" si="3"/>
-        <v>0.71814570170400149</v>
+        <v>0.7910379882289994</v>
       </c>
       <c r="M13" s="7">
         <f t="shared" si="0"/>
-        <v>41784</v>
+        <v>37380</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -18598,212 +18635,245 @@
       <c r="C14" s="6">
         <v>8</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>14</v>
       </c>
-      <c r="E14" s="9">
-        <v>3268</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="E14" s="1">
+        <v>2865</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2847</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2810</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2832</v>
+      </c>
+      <c r="I14">
+        <v>2822</v>
+      </c>
       <c r="J14" s="7">
         <f t="shared" si="1"/>
-        <v>3268</v>
+        <v>2810</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="2"/>
-        <v>9.1820685434516527</v>
+        <v>10.522775800711743</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" si="3"/>
-        <v>0.65586203881797522</v>
+        <v>0.75162684290798165</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" si="0"/>
-        <v>45752</v>
+        <v>39340</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
       <c r="C15" s="6">
         <v>9</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>16</v>
       </c>
-      <c r="E15" s="8">
-        <v>2997</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="E15" s="1">
+        <v>2660</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2654</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2676</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2715</v>
+      </c>
+      <c r="I15">
+        <v>2663</v>
+      </c>
       <c r="J15" s="7">
         <f t="shared" si="1"/>
-        <v>2997</v>
+        <v>2654</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="2"/>
-        <v>10.012345679012345</v>
+        <v>11.141296156744536</v>
       </c>
       <c r="L15" s="7">
         <f t="shared" si="3"/>
-        <v>0.62577160493827155</v>
+        <v>0.69633100979653351</v>
       </c>
       <c r="M15" s="7">
         <f t="shared" si="0"/>
-        <v>47952</v>
+        <v>42464</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C16" s="6">
         <v>10</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>18</v>
       </c>
-      <c r="E16" s="8">
-        <v>2849</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="E16" s="1">
+        <v>2563</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2578</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2577</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2508</v>
+      </c>
+      <c r="I16">
+        <v>2568</v>
+      </c>
       <c r="J16" s="7">
         <f t="shared" si="1"/>
-        <v>2849</v>
+        <v>2508</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" si="2"/>
-        <v>10.532467532467532</v>
+        <v>11.78987240829346</v>
       </c>
       <c r="L16" s="7">
         <f t="shared" si="3"/>
-        <v>0.58513708513708507</v>
+        <v>0.6549929115718589</v>
       </c>
       <c r="M16" s="7">
         <f t="shared" si="0"/>
-        <v>51282</v>
+        <v>45144</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C17" s="6">
         <v>11</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>20</v>
       </c>
-      <c r="E17" s="8">
-        <v>2677</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="E17" s="1">
+        <v>2456</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2420</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2434</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2395</v>
+      </c>
+      <c r="I17">
+        <v>2413</v>
+      </c>
       <c r="J17" s="7">
         <f t="shared" si="1"/>
-        <v>2677</v>
+        <v>2395</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="2"/>
-        <v>11.209189391109451</v>
+        <v>12.346137787056367</v>
       </c>
       <c r="L17" s="7">
         <f t="shared" si="3"/>
-        <v>0.56045946955547254</v>
+        <v>0.61730688935281841</v>
       </c>
       <c r="M17" s="7">
         <f t="shared" si="0"/>
-        <v>53540</v>
+        <v>47900</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C18" s="6">
         <v>12</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>22</v>
       </c>
-      <c r="E18" s="8">
-        <v>2973</v>
-      </c>
-      <c r="F18" s="8">
-        <v>3026</v>
-      </c>
-      <c r="G18" s="8">
-        <v>3044</v>
-      </c>
-      <c r="H18" s="8">
-        <v>3046</v>
-      </c>
-      <c r="I18" s="8">
-        <v>3112</v>
+      <c r="E18" s="1">
+        <v>2306</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2321</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2300</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2356</v>
+      </c>
+      <c r="I18">
+        <v>2327</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" ref="J18" si="4">MIN(E18:I18)</f>
-        <v>2973</v>
+        <v>2300</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="2"/>
-        <v>10.093171880255634</v>
+        <v>12.856086956521739</v>
       </c>
       <c r="L18" s="7">
         <f t="shared" si="3"/>
-        <v>0.45878054001161972</v>
+        <v>0.58436758893280638</v>
       </c>
       <c r="M18" s="7">
         <f t="shared" si="0"/>
-        <v>65406</v>
+        <v>50600</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C19" s="6">
         <v>13</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>24</v>
       </c>
-      <c r="E19" s="8">
-        <v>2942</v>
-      </c>
-      <c r="F19" s="8">
-        <v>2849</v>
-      </c>
-      <c r="G19" s="8">
-        <v>3140</v>
-      </c>
-      <c r="H19" s="8">
-        <v>2804</v>
-      </c>
-      <c r="I19" s="8">
-        <v>2942</v>
+      <c r="E19" s="1">
+        <v>2323</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2299</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2287</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2296</v>
+      </c>
+      <c r="I19">
+        <v>2225</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" ref="J19" si="5">MIN(E19:I19)</f>
-        <v>2804</v>
+        <v>2225</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="2"/>
-        <v>10.701497860199714</v>
+        <v>13.28943820224719</v>
       </c>
       <c r="L19" s="7">
         <f t="shared" si="3"/>
-        <v>0.44589574417498806</v>
+        <v>0.55372659176029959</v>
       </c>
       <c r="M19" s="7">
         <f t="shared" si="0"/>
-        <v>67296</v>
+        <v>53400</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="19"/>
+      <c r="A21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="16"/>
       <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
@@ -18835,30 +18905,38 @@
         <v>9</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="20"/>
+      <c r="A22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="17"/>
       <c r="C22" s="6">
         <v>1</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="E22" s="9">
-        <v>123808</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="E22" s="1">
+        <v>119495</v>
+      </c>
+      <c r="F22" s="1">
+        <v>120895</v>
+      </c>
+      <c r="G22" s="1">
+        <v>121182</v>
+      </c>
+      <c r="H22" s="1">
+        <v>119109</v>
+      </c>
+      <c r="I22" s="1">
+        <v>118987</v>
+      </c>
       <c r="J22" s="7">
         <f>MIN(E22:I22)</f>
-        <v>123808</v>
+        <v>118987</v>
       </c>
       <c r="K22" s="7">
         <v>1</v>
@@ -18868,42 +18946,50 @@
       </c>
       <c r="M22" s="7">
         <f t="shared" ref="M22:M34" si="6">D22*J22</f>
-        <v>123808</v>
+        <v>118987</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="20"/>
+      <c r="A23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="17"/>
       <c r="C23" s="6">
         <v>2</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>2</v>
       </c>
-      <c r="E23" s="9">
-        <v>64728</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="E23" s="1">
+        <v>60491</v>
+      </c>
+      <c r="F23" s="1">
+        <v>61222</v>
+      </c>
+      <c r="G23" s="1">
+        <v>59312</v>
+      </c>
+      <c r="H23" s="1">
+        <v>61066</v>
+      </c>
+      <c r="I23" s="1">
+        <v>60926</v>
+      </c>
       <c r="J23" s="7">
         <f t="shared" ref="J23:J32" si="7">MIN(E23:I23)</f>
-        <v>64728</v>
+        <v>59312</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" ref="K23:K34" si="8">$J$22/J23</f>
-        <v>1.9127425534544555</v>
+        <v>2.006120178041543</v>
       </c>
       <c r="L23" s="7">
         <f t="shared" ref="L23:L34" si="9">K23/D23</f>
-        <v>0.95637127672722777</v>
+        <v>1.0030600890207715</v>
       </c>
       <c r="M23" s="7">
         <f t="shared" si="6"/>
-        <v>129456</v>
+        <v>118624</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -18911,31 +18997,39 @@
       <c r="C24" s="6">
         <v>3</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>4</v>
       </c>
-      <c r="E24" s="9">
-        <v>33076</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="E24" s="1">
+        <v>30921</v>
+      </c>
+      <c r="F24" s="1">
+        <v>30709</v>
+      </c>
+      <c r="G24" s="1">
+        <v>30637</v>
+      </c>
+      <c r="H24" s="1">
+        <v>30619</v>
+      </c>
+      <c r="I24" s="1">
+        <v>30685</v>
+      </c>
       <c r="J24" s="7">
         <f t="shared" si="7"/>
-        <v>33076</v>
+        <v>30619</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="8"/>
-        <v>3.7431370177772405</v>
+        <v>3.8860511447140662</v>
       </c>
       <c r="L24" s="7">
         <f t="shared" si="9"/>
-        <v>0.93578425444431013</v>
+        <v>0.97151278617851655</v>
       </c>
       <c r="M24" s="7">
         <f t="shared" si="6"/>
-        <v>132304</v>
+        <v>122476</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -18943,31 +19037,39 @@
       <c r="C25" s="6">
         <v>4</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>6</v>
       </c>
-      <c r="E25" s="9">
-        <v>22862</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="E25" s="1">
+        <v>21017</v>
+      </c>
+      <c r="F25" s="1">
+        <v>21102</v>
+      </c>
+      <c r="G25" s="1">
+        <v>20939</v>
+      </c>
+      <c r="H25" s="1">
+        <v>21006</v>
+      </c>
+      <c r="I25" s="1">
+        <v>21072</v>
+      </c>
       <c r="J25" s="7">
         <f t="shared" si="7"/>
-        <v>22862</v>
+        <v>20939</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="8"/>
-        <v>5.4154492170413784</v>
+        <v>5.6825540856774444</v>
       </c>
       <c r="L25" s="7">
         <f t="shared" si="9"/>
-        <v>0.90257486950689636</v>
+        <v>0.94709234761290739</v>
       </c>
       <c r="M25" s="7">
         <f t="shared" si="6"/>
-        <v>137172</v>
+        <v>125634</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -18975,31 +19077,39 @@
       <c r="C26" s="6">
         <v>5</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>8</v>
       </c>
-      <c r="E26" s="9">
-        <v>17802</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="E26" s="1">
+        <v>16196</v>
+      </c>
+      <c r="F26" s="1">
+        <v>16355</v>
+      </c>
+      <c r="G26" s="1">
+        <v>16011</v>
+      </c>
+      <c r="H26" s="1">
+        <v>16303</v>
+      </c>
+      <c r="I26" s="1">
+        <v>16252</v>
+      </c>
       <c r="J26" s="7">
         <f t="shared" si="7"/>
-        <v>17802</v>
+        <v>16011</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="8"/>
-        <v>6.9547241882934498</v>
+        <v>7.4315782899256764</v>
       </c>
       <c r="L26" s="7">
         <f t="shared" si="9"/>
-        <v>0.86934052353668123</v>
+        <v>0.92894728624070955</v>
       </c>
       <c r="M26" s="7">
         <f t="shared" si="6"/>
-        <v>142416</v>
+        <v>128088</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -19007,31 +19117,39 @@
       <c r="C27" s="6">
         <v>6</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>10</v>
       </c>
-      <c r="E27" s="9">
-        <v>14251</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="E27" s="1">
+        <v>13212</v>
+      </c>
+      <c r="F27" s="1">
+        <v>13139</v>
+      </c>
+      <c r="G27" s="1">
+        <v>13382</v>
+      </c>
+      <c r="H27" s="1">
+        <v>13268</v>
+      </c>
+      <c r="I27" s="1">
+        <v>13228</v>
+      </c>
       <c r="J27" s="7">
         <f t="shared" si="7"/>
-        <v>14251</v>
+        <v>13139</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="8"/>
-        <v>8.687671040628727</v>
+        <v>9.0560164396072764</v>
       </c>
       <c r="L27" s="7">
         <f t="shared" si="9"/>
-        <v>0.86876710406287272</v>
+        <v>0.90560164396072762</v>
       </c>
       <c r="M27" s="7">
         <f t="shared" si="6"/>
-        <v>142510</v>
+        <v>131390</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -19039,31 +19157,39 @@
       <c r="C28" s="6">
         <v>7</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>12</v>
       </c>
-      <c r="E28" s="9">
-        <v>13104</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="E28" s="1">
+        <v>11307</v>
+      </c>
+      <c r="F28" s="1">
+        <v>11218</v>
+      </c>
+      <c r="G28" s="1">
+        <v>11211</v>
+      </c>
+      <c r="H28" s="1">
+        <v>11272</v>
+      </c>
+      <c r="I28" s="1">
+        <v>11319</v>
+      </c>
       <c r="J28" s="7">
         <f t="shared" si="7"/>
-        <v>13104</v>
+        <v>11211</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="8"/>
-        <v>9.4481074481074483</v>
+        <v>10.613415395593613</v>
       </c>
       <c r="L28" s="7">
         <f t="shared" si="9"/>
-        <v>0.78734228734228739</v>
+        <v>0.8844512829661344</v>
       </c>
       <c r="M28" s="7">
         <f t="shared" si="6"/>
-        <v>157248</v>
+        <v>134532</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -19071,209 +19197,241 @@
       <c r="C29" s="6">
         <v>8</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>14</v>
       </c>
-      <c r="E29" s="9">
-        <v>12141</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="E29" s="1">
+        <v>9866</v>
+      </c>
+      <c r="F29" s="1">
+        <v>9816</v>
+      </c>
+      <c r="G29" s="1">
+        <v>9839</v>
+      </c>
+      <c r="H29" s="1">
+        <v>9896</v>
+      </c>
+      <c r="I29" s="1">
+        <v>9894</v>
+      </c>
       <c r="J29" s="7">
         <f t="shared" si="7"/>
-        <v>12141</v>
+        <v>9816</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="8"/>
-        <v>10.197512560744585</v>
+        <v>12.121740016299919</v>
       </c>
       <c r="L29" s="7">
         <f t="shared" si="9"/>
-        <v>0.72839375433889886</v>
+        <v>0.86583857259285135</v>
       </c>
       <c r="M29" s="7">
         <f t="shared" si="6"/>
-        <v>169974</v>
+        <v>137424</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C30" s="6">
         <v>9</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>16</v>
       </c>
-      <c r="E30" s="8">
-        <v>11002</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="E30" s="1">
+        <v>8963</v>
+      </c>
+      <c r="F30" s="1">
+        <v>9066</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8912</v>
+      </c>
+      <c r="H30" s="1">
+        <v>8812</v>
+      </c>
+      <c r="I30" s="1">
+        <v>8874</v>
+      </c>
       <c r="J30" s="7">
         <f t="shared" si="7"/>
-        <v>11002</v>
+        <v>8812</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="8"/>
-        <v>11.253226686057081</v>
+        <v>13.502837040399456</v>
       </c>
       <c r="L30" s="7">
         <f t="shared" si="9"/>
-        <v>0.70332666787856757</v>
+        <v>0.84392731502496598</v>
       </c>
       <c r="M30" s="7">
         <f t="shared" si="6"/>
-        <v>176032</v>
+        <v>140992</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C31" s="6">
         <v>10</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="8">
         <v>18</v>
       </c>
-      <c r="E31" s="8">
-        <v>11093</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="E31" s="1">
+        <v>8681</v>
+      </c>
+      <c r="F31" s="1">
+        <v>8621</v>
+      </c>
+      <c r="G31" s="1">
+        <v>8608</v>
+      </c>
+      <c r="H31" s="1">
+        <v>8739</v>
+      </c>
+      <c r="I31" s="1">
+        <v>8643</v>
+      </c>
       <c r="J31" s="7">
         <f t="shared" si="7"/>
-        <v>11093</v>
+        <v>8608</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="8"/>
-        <v>11.160912287027855</v>
+        <v>13.822839219330856</v>
       </c>
       <c r="L31" s="7">
         <f t="shared" si="9"/>
-        <v>0.62005068261265861</v>
+        <v>0.76793551218504752</v>
       </c>
       <c r="M31" s="7">
         <f t="shared" si="6"/>
-        <v>199674</v>
+        <v>154944</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C32" s="6">
         <v>11</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <v>20</v>
       </c>
-      <c r="E32" s="8">
-        <v>12088</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="E32" s="1">
+        <v>8473</v>
+      </c>
+      <c r="F32" s="1">
+        <v>8354</v>
+      </c>
+      <c r="G32" s="1">
+        <v>8330</v>
+      </c>
+      <c r="H32" s="1">
+        <v>8300</v>
+      </c>
+      <c r="I32" s="1">
+        <v>8405</v>
+      </c>
       <c r="J32" s="7">
         <f t="shared" si="7"/>
-        <v>12088</v>
+        <v>8300</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="8"/>
-        <v>10.242223692918596</v>
+        <v>14.335783132530121</v>
       </c>
       <c r="L32" s="7">
         <f t="shared" si="9"/>
-        <v>0.51211118464592986</v>
+        <v>0.71678915662650611</v>
       </c>
       <c r="M32" s="7">
         <f t="shared" si="6"/>
-        <v>241760</v>
+        <v>166000</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C33" s="6">
         <v>12</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <v>22</v>
       </c>
-      <c r="E33" s="8">
-        <v>10428</v>
-      </c>
-      <c r="F33" s="8">
-        <v>10164</v>
-      </c>
-      <c r="G33" s="8">
-        <v>9792</v>
-      </c>
-      <c r="H33" s="8">
-        <v>9944</v>
-      </c>
-      <c r="I33" s="8">
-        <v>9963</v>
+      <c r="E33" s="1">
+        <v>8128</v>
+      </c>
+      <c r="F33" s="1">
+        <v>8074</v>
+      </c>
+      <c r="G33" s="1">
+        <v>8123</v>
+      </c>
+      <c r="H33" s="1">
+        <v>8173</v>
+      </c>
+      <c r="I33" s="1">
+        <v>8097</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" ref="J33:J34" si="10">MIN(E33:I33)</f>
-        <v>9792</v>
+        <v>8074</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="8"/>
-        <v>12.643790849673202</v>
+        <v>14.737057220708447</v>
       </c>
       <c r="L33" s="7">
         <f t="shared" si="9"/>
-        <v>0.57471776589423651</v>
+        <v>0.66986623730492945</v>
       </c>
       <c r="M33" s="7">
         <f t="shared" si="6"/>
-        <v>215424</v>
+        <v>177628</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C34" s="6">
         <v>13</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>24</v>
       </c>
-      <c r="E34" s="8">
-        <v>9747</v>
-      </c>
-      <c r="F34" s="8">
-        <v>10155</v>
-      </c>
-      <c r="G34" s="8">
-        <v>9956</v>
-      </c>
-      <c r="H34" s="8">
-        <v>10126</v>
-      </c>
-      <c r="I34" s="8">
-        <v>9754</v>
+      <c r="E34" s="1">
+        <v>7829</v>
+      </c>
+      <c r="F34" s="1">
+        <v>7816</v>
+      </c>
+      <c r="G34" s="1">
+        <v>7932</v>
+      </c>
+      <c r="H34" s="1">
+        <v>7734</v>
+      </c>
+      <c r="I34" s="1">
+        <v>7823</v>
       </c>
       <c r="J34" s="7">
         <f t="shared" si="10"/>
-        <v>9747</v>
+        <v>7734</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="8"/>
-        <v>12.702164768646764</v>
+        <v>15.384923713472977</v>
       </c>
       <c r="L34" s="7">
         <f t="shared" si="9"/>
-        <v>0.52925686536028183</v>
+        <v>0.64103848806137409</v>
       </c>
       <c r="M34" s="7">
         <f t="shared" si="6"/>
-        <v>233928</v>
+        <v>185616</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="18"/>
+      <c r="A36" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="15"/>
       <c r="C36" s="3" t="s">
         <v>0</v>
       </c>
@@ -19305,30 +19463,38 @@
         <v>9</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="16"/>
+      <c r="A37" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="13"/>
       <c r="C37" s="6">
         <v>1</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>1</v>
       </c>
-      <c r="E37" s="9">
-        <v>275513</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="E37" s="1">
+        <v>271522</v>
+      </c>
+      <c r="F37" s="1">
+        <v>268995</v>
+      </c>
+      <c r="G37" s="1">
+        <v>270432</v>
+      </c>
+      <c r="H37" s="1">
+        <v>272053</v>
+      </c>
+      <c r="I37" s="1">
+        <v>273960</v>
+      </c>
       <c r="J37" s="7">
         <f>MIN(E37:I37)</f>
-        <v>275513</v>
+        <v>268995</v>
       </c>
       <c r="K37" s="7">
         <v>1</v>
@@ -19338,42 +19504,50 @@
       </c>
       <c r="M37" s="7">
         <f t="shared" ref="M37:M49" si="11">D37*J37</f>
-        <v>275513</v>
+        <v>268995</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="16"/>
+      <c r="A38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="13"/>
       <c r="C38" s="6">
         <v>2</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="8">
         <v>2</v>
       </c>
-      <c r="E38" s="9">
-        <v>142684</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="E38" s="1">
+        <v>138942</v>
+      </c>
+      <c r="F38" s="1">
+        <v>138919</v>
+      </c>
+      <c r="G38" s="1">
+        <v>138670</v>
+      </c>
+      <c r="H38" s="1">
+        <v>135316</v>
+      </c>
+      <c r="I38" s="1">
+        <v>137046</v>
+      </c>
       <c r="J38" s="7">
         <f t="shared" ref="J38:J49" si="12">MIN(E38:I38)</f>
-        <v>142684</v>
+        <v>135316</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" ref="K38:K49" si="13">$J$37/J38</f>
-        <v>1.930931288721931</v>
+        <v>1.9879023914392977</v>
       </c>
       <c r="L38" s="7">
         <f t="shared" ref="L38:L49" si="14">K38/D38</f>
-        <v>0.96546564436096549</v>
+        <v>0.99395119571964885</v>
       </c>
       <c r="M38" s="7">
         <f t="shared" si="11"/>
-        <v>285368</v>
+        <v>270632</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -19381,31 +19555,39 @@
       <c r="C39" s="6">
         <v>3</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="8">
         <v>4</v>
       </c>
-      <c r="E39" s="9">
-        <v>72022</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="E39" s="1">
+        <v>68893</v>
+      </c>
+      <c r="F39" s="1">
+        <v>68693</v>
+      </c>
+      <c r="G39" s="1">
+        <v>69103</v>
+      </c>
+      <c r="H39" s="1">
+        <v>69631</v>
+      </c>
+      <c r="I39" s="1">
+        <v>68624</v>
+      </c>
       <c r="J39" s="7">
         <f t="shared" si="12"/>
-        <v>72022</v>
+        <v>68624</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="13"/>
-        <v>3.82540057204743</v>
+        <v>3.9198385404523197</v>
       </c>
       <c r="L39" s="7">
         <f t="shared" si="14"/>
-        <v>0.9563501430118575</v>
+        <v>0.97995963511307993</v>
       </c>
       <c r="M39" s="7">
         <f t="shared" si="11"/>
-        <v>288088</v>
+        <v>274496</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -19413,31 +19595,39 @@
       <c r="C40" s="6">
         <v>4</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="8">
         <v>6</v>
       </c>
-      <c r="E40" s="9">
-        <v>51370</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="E40" s="1">
+        <v>46638</v>
+      </c>
+      <c r="F40" s="1">
+        <v>47105</v>
+      </c>
+      <c r="G40" s="1">
+        <v>47067</v>
+      </c>
+      <c r="H40" s="1">
+        <v>47498</v>
+      </c>
+      <c r="I40" s="1">
+        <v>47397</v>
+      </c>
       <c r="J40" s="7">
         <f t="shared" si="12"/>
-        <v>51370</v>
+        <v>46638</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="13"/>
-        <v>5.3633054311855171</v>
+        <v>5.7677216004116811</v>
       </c>
       <c r="L40" s="7">
         <f t="shared" si="14"/>
-        <v>0.89388423853091947</v>
+        <v>0.96128693340194682</v>
       </c>
       <c r="M40" s="7">
         <f t="shared" si="11"/>
-        <v>308220</v>
+        <v>279828</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -19445,31 +19635,39 @@
       <c r="C41" s="6">
         <v>5</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="8">
         <v>8</v>
       </c>
-      <c r="E41" s="9">
-        <v>38814</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="E41" s="1">
+        <v>36131</v>
+      </c>
+      <c r="F41" s="1">
+        <v>36158</v>
+      </c>
+      <c r="G41" s="1">
+        <v>35914</v>
+      </c>
+      <c r="H41" s="1">
+        <v>36254</v>
+      </c>
+      <c r="I41" s="1">
+        <v>36370</v>
+      </c>
       <c r="J41" s="7">
         <f t="shared" si="12"/>
-        <v>38814</v>
+        <v>35914</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="13"/>
-        <v>7.0982892770649766</v>
+        <v>7.4899760539065543</v>
       </c>
       <c r="L41" s="7">
         <f t="shared" si="14"/>
-        <v>0.88728615963312207</v>
+        <v>0.93624700673831929</v>
       </c>
       <c r="M41" s="7">
         <f t="shared" si="11"/>
-        <v>310512</v>
+        <v>287312</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -19477,31 +19675,39 @@
       <c r="C42" s="6">
         <v>6</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="8">
         <v>10</v>
       </c>
-      <c r="E42" s="9">
-        <v>30870</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="E42" s="1">
+        <v>29262</v>
+      </c>
+      <c r="F42" s="1">
+        <v>29056</v>
+      </c>
+      <c r="G42" s="1">
+        <v>29022</v>
+      </c>
+      <c r="H42" s="1">
+        <v>29023</v>
+      </c>
+      <c r="I42" s="1">
+        <v>29017</v>
+      </c>
       <c r="J42" s="7">
         <f t="shared" si="12"/>
-        <v>30870</v>
+        <v>29017</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="13"/>
-        <v>8.9249433106575964</v>
+        <v>9.2702553675431645</v>
       </c>
       <c r="L42" s="7">
         <f t="shared" si="14"/>
-        <v>0.89249433106575959</v>
+        <v>0.92702553675431643</v>
       </c>
       <c r="M42" s="7">
         <f t="shared" si="11"/>
-        <v>308700</v>
+        <v>290170</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -19509,31 +19715,39 @@
       <c r="C43" s="6">
         <v>7</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="8">
         <v>12</v>
       </c>
-      <c r="E43" s="9">
-        <v>26596</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="E43" s="1">
+        <v>24583</v>
+      </c>
+      <c r="F43" s="1">
+        <v>24732</v>
+      </c>
+      <c r="G43" s="1">
+        <v>24608</v>
+      </c>
+      <c r="H43" s="1">
+        <v>24652</v>
+      </c>
+      <c r="I43" s="1">
+        <v>24857</v>
+      </c>
       <c r="J43" s="7">
         <f t="shared" si="12"/>
-        <v>26596</v>
+        <v>24583</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="13"/>
-        <v>10.359189351782224</v>
+        <v>10.942317861937111</v>
       </c>
       <c r="L43" s="7">
         <f t="shared" si="14"/>
-        <v>0.86326577931518533</v>
+        <v>0.91185982182809255</v>
       </c>
       <c r="M43" s="7">
         <f t="shared" si="11"/>
-        <v>319152</v>
+        <v>294996</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -19541,209 +19755,241 @@
       <c r="C44" s="6">
         <v>8</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="8">
         <v>14</v>
       </c>
-      <c r="E44" s="9">
-        <v>24638</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="E44" s="1">
+        <v>21321</v>
+      </c>
+      <c r="F44" s="1">
+        <v>21282</v>
+      </c>
+      <c r="G44" s="1">
+        <v>21393</v>
+      </c>
+      <c r="H44" s="1">
+        <v>21338</v>
+      </c>
+      <c r="I44" s="1">
+        <v>21375</v>
+      </c>
       <c r="J44" s="7">
         <f t="shared" si="12"/>
-        <v>24638</v>
+        <v>21282</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="13"/>
-        <v>11.182441756636091</v>
+        <v>12.639554553143501</v>
       </c>
       <c r="L44" s="7">
         <f t="shared" si="14"/>
-        <v>0.7987458397597208</v>
+        <v>0.90282532522453585</v>
       </c>
       <c r="M44" s="7">
         <f t="shared" si="11"/>
-        <v>344932</v>
+        <v>297948</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C45" s="6">
         <v>9</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="8">
         <v>16</v>
       </c>
-      <c r="E45" s="8">
-        <v>24488</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="E45" s="1">
+        <v>19382</v>
+      </c>
+      <c r="F45" s="1">
+        <v>19044</v>
+      </c>
+      <c r="G45" s="1">
+        <v>19086</v>
+      </c>
+      <c r="H45" s="1">
+        <v>19191</v>
+      </c>
+      <c r="I45" s="1">
+        <v>19254</v>
+      </c>
       <c r="J45" s="7">
         <f t="shared" si="12"/>
-        <v>24488</v>
+        <v>19044</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="13"/>
-        <v>11.250939235543941</v>
+        <v>14.124921235034657</v>
       </c>
       <c r="L45" s="7">
         <f t="shared" si="14"/>
-        <v>0.70318370222149629</v>
+        <v>0.88280757718966607</v>
       </c>
       <c r="M45" s="7">
         <f t="shared" si="11"/>
-        <v>391808</v>
+        <v>304704</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C46" s="6">
         <v>10</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="8">
         <v>18</v>
       </c>
-      <c r="E46" s="8">
-        <v>20537</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="E46" s="1">
+        <v>18987</v>
+      </c>
+      <c r="F46" s="1">
+        <v>19005</v>
+      </c>
+      <c r="G46" s="1">
+        <v>18921</v>
+      </c>
+      <c r="H46" s="1">
+        <v>18824</v>
+      </c>
+      <c r="I46" s="1">
+        <v>18991</v>
+      </c>
       <c r="J46" s="7">
         <f t="shared" si="12"/>
-        <v>20537</v>
+        <v>18824</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="13"/>
-        <v>13.415445293859863</v>
+        <v>14.290002124946877</v>
       </c>
       <c r="L46" s="7">
         <f t="shared" si="14"/>
-        <v>0.74530251632554789</v>
+        <v>0.79388900694149322</v>
       </c>
       <c r="M46" s="7">
         <f t="shared" si="11"/>
-        <v>369666</v>
+        <v>338832</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C47" s="6">
         <v>11</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="8">
         <v>20</v>
       </c>
-      <c r="E47" s="8">
-        <v>20022</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="E47" s="1">
+        <v>18293</v>
+      </c>
+      <c r="F47" s="1">
+        <v>18223</v>
+      </c>
+      <c r="G47" s="1">
+        <v>18375</v>
+      </c>
+      <c r="H47" s="1">
+        <v>18295</v>
+      </c>
+      <c r="I47" s="1">
+        <v>18336</v>
+      </c>
       <c r="J47" s="7">
         <f t="shared" si="12"/>
-        <v>20022</v>
+        <v>18223</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="13"/>
-        <v>13.760513435221256</v>
+        <v>14.761290676617461</v>
       </c>
       <c r="L47" s="7">
         <f t="shared" si="14"/>
-        <v>0.68802567176106277</v>
+        <v>0.73806453383087312</v>
       </c>
       <c r="M47" s="7">
         <f t="shared" si="11"/>
-        <v>400440</v>
+        <v>364460</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C48" s="6">
         <v>12</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="8">
         <v>22</v>
       </c>
-      <c r="E48" s="8">
-        <v>21325</v>
-      </c>
-      <c r="F48" s="8">
-        <v>21459</v>
-      </c>
-      <c r="G48" s="8">
-        <v>21277</v>
-      </c>
-      <c r="H48" s="8">
-        <v>21245</v>
-      </c>
-      <c r="I48" s="8">
-        <v>21338</v>
+      <c r="E48" s="1">
+        <v>17570</v>
+      </c>
+      <c r="F48" s="1">
+        <v>17647</v>
+      </c>
+      <c r="G48" s="1">
+        <v>17726</v>
+      </c>
+      <c r="H48" s="1">
+        <v>17804</v>
+      </c>
+      <c r="I48" s="1">
+        <v>17696</v>
       </c>
       <c r="J48" s="7">
         <f t="shared" si="12"/>
-        <v>21245</v>
+        <v>17570</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="13"/>
-        <v>12.96836902800659</v>
+        <v>15.309903244166192</v>
       </c>
       <c r="L48" s="7">
         <f t="shared" si="14"/>
-        <v>0.58947131945484499</v>
+        <v>0.69590469291664503</v>
       </c>
       <c r="M48" s="7">
         <f t="shared" si="11"/>
-        <v>467390</v>
+        <v>386540</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C49" s="6">
         <v>13</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="8">
         <v>24</v>
       </c>
-      <c r="E49" s="8">
-        <v>21170</v>
-      </c>
-      <c r="F49" s="8">
-        <v>21135</v>
-      </c>
-      <c r="G49" s="8">
-        <v>21214</v>
-      </c>
-      <c r="H49" s="8">
-        <v>21127</v>
-      </c>
-      <c r="I49" s="8">
-        <v>21222</v>
+      <c r="E49" s="1">
+        <v>17117</v>
+      </c>
+      <c r="F49" s="1">
+        <v>17256</v>
+      </c>
+      <c r="G49" s="1">
+        <v>17014</v>
+      </c>
+      <c r="H49" s="1">
+        <v>17177</v>
+      </c>
+      <c r="I49" s="1">
+        <v>16967</v>
       </c>
       <c r="J49" s="7">
         <f t="shared" si="12"/>
-        <v>21127</v>
+        <v>16967</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="13"/>
-        <v>13.040800870923462</v>
+        <v>15.854010726704781</v>
       </c>
       <c r="L49" s="7">
         <f t="shared" si="14"/>
-        <v>0.54336670295514422</v>
+        <v>0.66058378027936582</v>
       </c>
       <c r="M49" s="7">
         <f t="shared" si="11"/>
-        <v>507048</v>
+        <v>407208</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="18"/>
+      <c r="A51" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="15"/>
       <c r="C51" s="3" t="s">
         <v>0</v>
       </c>
@@ -19775,38 +20021,38 @@
         <v>9</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B52" s="16"/>
+      <c r="A52" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="13"/>
       <c r="C52" s="6">
         <v>1</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="8">
         <v>1</v>
       </c>
-      <c r="E52" s="9">
-        <v>484061</v>
-      </c>
-      <c r="F52" s="9">
-        <v>475600</v>
-      </c>
-      <c r="G52" s="9">
-        <v>475107</v>
-      </c>
-      <c r="H52" s="9">
-        <v>475168</v>
-      </c>
-      <c r="I52" s="9">
-        <v>474325</v>
+      <c r="E52" s="1">
+        <v>480287</v>
+      </c>
+      <c r="F52" s="1">
+        <v>479894</v>
+      </c>
+      <c r="G52" s="1">
+        <v>476918</v>
+      </c>
+      <c r="H52" s="1">
+        <v>477579</v>
+      </c>
+      <c r="I52">
+        <v>476960</v>
       </c>
       <c r="J52" s="7">
         <f>MIN(E52:I52)</f>
-        <v>474325</v>
+        <v>476918</v>
       </c>
       <c r="K52" s="7">
         <v>1</v>
@@ -19816,50 +20062,50 @@
       </c>
       <c r="M52" s="7">
         <f t="shared" ref="M52:M62" si="15">D52*J52</f>
-        <v>474325</v>
+        <v>476918</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="16"/>
+      <c r="A53" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="13"/>
       <c r="C53" s="6">
         <v>2</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="8">
         <v>2</v>
       </c>
-      <c r="E53" s="9">
-        <v>245701</v>
-      </c>
-      <c r="F53" s="11">
-        <v>271714</v>
-      </c>
-      <c r="G53" s="11">
-        <v>274180</v>
-      </c>
-      <c r="H53" s="11">
-        <v>248261</v>
-      </c>
-      <c r="I53" s="11">
-        <v>287478</v>
+      <c r="E53" s="1">
+        <v>242684</v>
+      </c>
+      <c r="F53" s="1">
+        <v>240366</v>
+      </c>
+      <c r="G53" s="1">
+        <v>240982</v>
+      </c>
+      <c r="H53" s="1">
+        <v>242092</v>
+      </c>
+      <c r="I53">
+        <v>240832</v>
       </c>
       <c r="J53" s="7">
         <f t="shared" ref="J53:J64" si="16">MIN(E53:I53)</f>
-        <v>245701</v>
+        <v>240366</v>
       </c>
       <c r="K53" s="7">
         <f>$J$52/J53</f>
-        <v>1.9304968233747521</v>
+        <v>1.9841325312232179</v>
       </c>
       <c r="L53" s="7">
         <f t="shared" ref="L53:L62" si="17">K53/D53</f>
-        <v>0.96524841168737607</v>
+        <v>0.99206626561160893</v>
       </c>
       <c r="M53" s="7">
         <f t="shared" si="15"/>
-        <v>491402</v>
+        <v>480732</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -19867,39 +20113,39 @@
       <c r="C54" s="6">
         <v>3</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="8">
         <v>4</v>
       </c>
-      <c r="E54" s="9">
-        <v>128200</v>
-      </c>
-      <c r="F54" s="11">
-        <v>129910</v>
-      </c>
-      <c r="G54" s="11">
-        <v>133203</v>
-      </c>
-      <c r="H54" s="11">
-        <v>129504</v>
-      </c>
-      <c r="I54" s="11">
-        <v>129624</v>
+      <c r="E54" s="1">
+        <v>121531</v>
+      </c>
+      <c r="F54" s="1">
+        <v>120625</v>
+      </c>
+      <c r="G54" s="1">
+        <v>121664</v>
+      </c>
+      <c r="H54" s="1">
+        <v>120984</v>
+      </c>
+      <c r="I54" s="1">
+        <v>121737</v>
       </c>
       <c r="J54" s="7">
         <f t="shared" si="16"/>
-        <v>128200</v>
+        <v>120625</v>
       </c>
       <c r="K54" s="7">
-        <f t="shared" ref="K54:K64" si="18">$J$52/J54</f>
-        <v>3.6998829953198129</v>
+        <f t="shared" ref="K54:K63" si="18">$J$52/J54</f>
+        <v>3.9537243523316064</v>
       </c>
       <c r="L54" s="7">
         <f t="shared" si="17"/>
-        <v>0.92497074882995323</v>
+        <v>0.98843108808290159</v>
       </c>
       <c r="M54" s="7">
         <f t="shared" si="15"/>
-        <v>512800</v>
+        <v>482500</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -19907,39 +20153,39 @@
       <c r="C55" s="6">
         <v>4</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="8">
         <v>6</v>
       </c>
-      <c r="E55" s="9">
-        <v>87815</v>
-      </c>
-      <c r="F55" s="11">
-        <v>88337</v>
-      </c>
-      <c r="G55" s="11">
-        <v>89009</v>
-      </c>
-      <c r="H55" s="11">
-        <v>89828</v>
-      </c>
-      <c r="I55" s="11">
-        <v>89186</v>
+      <c r="E55" s="1">
+        <v>82702</v>
+      </c>
+      <c r="F55" s="1">
+        <v>82490</v>
+      </c>
+      <c r="G55" s="1">
+        <v>83962</v>
+      </c>
+      <c r="H55" s="1">
+        <v>82986</v>
+      </c>
+      <c r="I55" s="1">
+        <v>82661</v>
       </c>
       <c r="J55" s="7">
         <f t="shared" si="16"/>
-        <v>87815</v>
+        <v>82490</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="18"/>
-        <v>5.4014120594431478</v>
+        <v>5.781525033337374</v>
       </c>
       <c r="L55" s="7">
         <f t="shared" si="17"/>
-        <v>0.90023534324052468</v>
+        <v>0.96358750555622896</v>
       </c>
       <c r="M55" s="7">
         <f t="shared" si="15"/>
-        <v>526890</v>
+        <v>494940</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -19947,39 +20193,39 @@
       <c r="C56" s="6">
         <v>5</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="8">
         <v>8</v>
       </c>
-      <c r="E56" s="9">
-        <v>67649</v>
-      </c>
-      <c r="F56" s="11">
-        <v>67213</v>
-      </c>
-      <c r="G56" s="11">
-        <v>67950</v>
-      </c>
-      <c r="H56" s="11">
-        <v>67932</v>
-      </c>
-      <c r="I56" s="11">
-        <v>67936</v>
+      <c r="E56" s="1">
+        <v>63152</v>
+      </c>
+      <c r="F56" s="1">
+        <v>63144</v>
+      </c>
+      <c r="G56" s="1">
+        <v>63154</v>
+      </c>
+      <c r="H56" s="1">
+        <v>63146</v>
+      </c>
+      <c r="I56" s="1">
+        <v>63116</v>
       </c>
       <c r="J56" s="7">
         <f t="shared" si="16"/>
-        <v>67213</v>
+        <v>63116</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" si="18"/>
-        <v>7.0570425364140865</v>
+        <v>7.5562139552569869</v>
       </c>
       <c r="L56" s="7">
         <f t="shared" si="17"/>
-        <v>0.88213031705176081</v>
+        <v>0.94452674440712336</v>
       </c>
       <c r="M56" s="7">
         <f t="shared" si="15"/>
-        <v>537704</v>
+        <v>504928</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -19987,39 +20233,39 @@
       <c r="C57" s="6">
         <v>6</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="8">
         <v>10</v>
       </c>
-      <c r="E57" s="9">
-        <v>55227</v>
-      </c>
-      <c r="F57" s="11">
-        <v>55558</v>
-      </c>
-      <c r="G57" s="11">
-        <v>55186</v>
-      </c>
-      <c r="H57" s="11">
-        <v>56226</v>
-      </c>
-      <c r="I57" s="11">
-        <v>55670</v>
+      <c r="E57" s="1">
+        <v>51413</v>
+      </c>
+      <c r="F57" s="1">
+        <v>51487</v>
+      </c>
+      <c r="G57" s="1">
+        <v>51406</v>
+      </c>
+      <c r="H57" s="1">
+        <v>51251</v>
+      </c>
+      <c r="I57" s="1">
+        <v>51306</v>
       </c>
       <c r="J57" s="7">
         <f t="shared" si="16"/>
-        <v>55186</v>
+        <v>51251</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="18"/>
-        <v>8.5950241003152978</v>
+        <v>9.3055355017463075</v>
       </c>
       <c r="L57" s="7">
         <f t="shared" si="17"/>
-        <v>0.85950241003152983</v>
+        <v>0.93055355017463071</v>
       </c>
       <c r="M57" s="7">
         <f t="shared" si="15"/>
-        <v>551860</v>
+        <v>512510</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -20027,39 +20273,39 @@
       <c r="C58" s="6">
         <v>7</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="8">
         <v>12</v>
       </c>
-      <c r="E58" s="9">
-        <v>47248</v>
-      </c>
-      <c r="F58" s="11">
-        <v>46674</v>
-      </c>
-      <c r="G58" s="11">
-        <v>46743</v>
-      </c>
-      <c r="H58" s="11">
-        <v>46735</v>
-      </c>
-      <c r="I58" s="11">
-        <v>46728</v>
+      <c r="E58" s="1">
+        <v>43555</v>
+      </c>
+      <c r="F58" s="1">
+        <v>43351</v>
+      </c>
+      <c r="G58" s="1">
+        <v>43475</v>
+      </c>
+      <c r="H58" s="1">
+        <v>43162</v>
+      </c>
+      <c r="I58" s="1">
+        <v>43371</v>
       </c>
       <c r="J58" s="7">
         <f t="shared" si="16"/>
-        <v>46674</v>
+        <v>43162</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="18"/>
-        <v>10.162510176972191</v>
+        <v>11.049487975534035</v>
       </c>
       <c r="L58" s="7">
         <f t="shared" si="17"/>
-        <v>0.8468758480810159</v>
+        <v>0.92079066462783621</v>
       </c>
       <c r="M58" s="7">
         <f t="shared" si="15"/>
-        <v>560088</v>
+        <v>517944</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -20067,234 +20313,234 @@
       <c r="C59" s="6">
         <v>8</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="8">
         <v>14</v>
       </c>
-      <c r="E59" s="9">
-        <v>43142</v>
-      </c>
-      <c r="F59" s="11">
-        <v>41749</v>
-      </c>
-      <c r="G59" s="11">
-        <v>41384</v>
-      </c>
-      <c r="H59" s="11">
-        <v>43296</v>
-      </c>
-      <c r="I59" s="11">
-        <v>42551</v>
+      <c r="E59" s="1">
+        <v>37949</v>
+      </c>
+      <c r="F59" s="1">
+        <v>38191</v>
+      </c>
+      <c r="G59" s="1">
+        <v>37793</v>
+      </c>
+      <c r="H59" s="1">
+        <v>37725</v>
+      </c>
+      <c r="I59" s="1">
+        <v>37989</v>
       </c>
       <c r="J59" s="7">
         <f t="shared" si="16"/>
-        <v>41384</v>
+        <v>37725</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="18"/>
-        <v>11.461555190411753</v>
+        <v>12.641961563949636</v>
       </c>
       <c r="L59" s="7">
         <f t="shared" si="17"/>
-        <v>0.81868251360083943</v>
+        <v>0.90299725456783109</v>
       </c>
       <c r="M59" s="7">
         <f t="shared" si="15"/>
-        <v>579376</v>
+        <v>528150</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C60" s="6">
         <v>9</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="8">
         <v>16</v>
       </c>
-      <c r="E60" s="8">
-        <v>39933</v>
-      </c>
-      <c r="F60" s="11">
-        <v>39848</v>
-      </c>
-      <c r="G60" s="11">
-        <v>40740</v>
-      </c>
-      <c r="H60" s="11">
-        <v>38672</v>
-      </c>
-      <c r="I60" s="11">
-        <v>38895</v>
+      <c r="E60" s="1">
+        <v>33704</v>
+      </c>
+      <c r="F60" s="1">
+        <v>33864</v>
+      </c>
+      <c r="G60" s="1">
+        <v>33730</v>
+      </c>
+      <c r="H60" s="1">
+        <v>33767</v>
+      </c>
+      <c r="I60" s="1">
+        <v>33975</v>
       </c>
       <c r="J60" s="7">
         <f t="shared" si="16"/>
-        <v>38672</v>
+        <v>33704</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="18"/>
-        <v>12.2653340918494</v>
+        <v>14.150189888440542</v>
       </c>
       <c r="L60" s="7">
         <f t="shared" si="17"/>
-        <v>0.76658338074058752</v>
+        <v>0.88438686802753386</v>
       </c>
       <c r="M60" s="7">
         <f t="shared" si="15"/>
-        <v>618752</v>
+        <v>539264</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C61" s="6">
         <v>10</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="8">
         <v>18</v>
       </c>
-      <c r="E61" s="8">
-        <v>36670</v>
-      </c>
-      <c r="F61" s="11">
-        <v>36997</v>
-      </c>
-      <c r="G61" s="11">
-        <v>35839</v>
-      </c>
-      <c r="H61" s="11">
-        <v>36378</v>
-      </c>
-      <c r="I61" s="11">
-        <v>35836</v>
+      <c r="E61" s="1">
+        <v>32821</v>
+      </c>
+      <c r="F61" s="1">
+        <v>33146</v>
+      </c>
+      <c r="G61" s="1">
+        <v>33037</v>
+      </c>
+      <c r="H61" s="1">
+        <v>32985</v>
+      </c>
+      <c r="I61" s="1">
+        <v>33026</v>
       </c>
       <c r="J61" s="7">
         <f t="shared" si="16"/>
-        <v>35836</v>
+        <v>32821</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="18"/>
-        <v>13.23599174014957</v>
+        <v>14.530879619755645</v>
       </c>
       <c r="L61" s="7">
         <f t="shared" si="17"/>
-        <v>0.73533287445275386</v>
+        <v>0.80727108998642472</v>
       </c>
       <c r="M61" s="7">
         <f t="shared" si="15"/>
-        <v>645048</v>
+        <v>590778</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C62" s="6">
         <v>11</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="8">
         <v>20</v>
       </c>
-      <c r="E62" s="8">
-        <v>34575</v>
-      </c>
-      <c r="F62" s="11">
-        <v>34915</v>
-      </c>
-      <c r="G62" s="11">
-        <v>34626</v>
-      </c>
-      <c r="H62" s="11">
-        <v>34836</v>
-      </c>
-      <c r="I62" s="11">
-        <v>34814</v>
-      </c>
-      <c r="J62" s="12">
+      <c r="E62" s="1">
+        <v>32080</v>
+      </c>
+      <c r="F62" s="1">
+        <v>31935</v>
+      </c>
+      <c r="G62" s="1">
+        <v>31993</v>
+      </c>
+      <c r="H62" s="1">
+        <v>32020</v>
+      </c>
+      <c r="I62" s="1">
+        <v>31943</v>
+      </c>
+      <c r="J62" s="9">
         <f t="shared" si="16"/>
-        <v>34575</v>
-      </c>
-      <c r="K62" s="12">
+        <v>31935</v>
+      </c>
+      <c r="K62" s="9">
         <f t="shared" si="18"/>
-        <v>13.718727404193782</v>
-      </c>
-      <c r="L62" s="12">
+        <v>14.934022232660091</v>
+      </c>
+      <c r="L62" s="9">
         <f t="shared" si="17"/>
-        <v>0.68593637020968912</v>
-      </c>
-      <c r="M62" s="12">
+        <v>0.74670111163300457</v>
+      </c>
+      <c r="M62" s="9">
         <f t="shared" si="15"/>
-        <v>691500</v>
+        <v>638700</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C63" s="6">
         <v>12</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="8">
         <v>22</v>
       </c>
-      <c r="E63" s="11">
-        <v>34738</v>
-      </c>
-      <c r="F63" s="11">
-        <v>34075</v>
-      </c>
-      <c r="G63" s="11">
-        <v>34004</v>
-      </c>
-      <c r="H63" s="11">
-        <v>34087</v>
-      </c>
-      <c r="I63" s="11">
-        <v>33927</v>
-      </c>
-      <c r="J63" s="12">
+      <c r="E63" s="1">
+        <v>30919</v>
+      </c>
+      <c r="F63" s="1">
+        <v>30879</v>
+      </c>
+      <c r="G63" s="1">
+        <v>30828</v>
+      </c>
+      <c r="H63" s="1">
+        <v>30896</v>
+      </c>
+      <c r="I63" s="1">
+        <v>30868</v>
+      </c>
+      <c r="J63" s="9">
         <f t="shared" si="16"/>
-        <v>33927</v>
-      </c>
-      <c r="K63" s="12">
+        <v>30828</v>
+      </c>
+      <c r="K63" s="9">
         <f t="shared" si="18"/>
-        <v>13.980752792760928</v>
-      </c>
-      <c r="L63" s="12">
+        <v>15.470286752303101</v>
+      </c>
+      <c r="L63" s="9">
         <f t="shared" ref="L63:L64" si="19">K63/D63</f>
-        <v>0.63548876330731485</v>
-      </c>
-      <c r="M63" s="12">
+        <v>0.70319485237741375</v>
+      </c>
+      <c r="M63" s="9">
         <f t="shared" ref="M63:M64" si="20">D63*J63</f>
-        <v>746394</v>
+        <v>678216</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C64" s="6">
         <v>13</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="8">
         <v>24</v>
       </c>
-      <c r="E64" s="11">
-        <v>33247</v>
-      </c>
-      <c r="F64" s="11">
-        <v>33056</v>
-      </c>
-      <c r="G64" s="11">
-        <v>33046</v>
-      </c>
-      <c r="H64" s="11">
-        <v>33022</v>
-      </c>
-      <c r="I64" s="11">
-        <v>33202</v>
-      </c>
-      <c r="J64" s="12">
+      <c r="E64" s="1">
+        <v>29849</v>
+      </c>
+      <c r="F64" s="1">
+        <v>30121</v>
+      </c>
+      <c r="G64" s="1">
+        <v>29882</v>
+      </c>
+      <c r="H64" s="1">
+        <v>29707</v>
+      </c>
+      <c r="I64" s="1">
+        <v>29858</v>
+      </c>
+      <c r="J64" s="9">
         <f t="shared" si="16"/>
-        <v>33022</v>
-      </c>
-      <c r="K64" s="12">
-        <f t="shared" si="18"/>
-        <v>14.363908909212041</v>
-      </c>
-      <c r="L64" s="12">
+        <v>29707</v>
+      </c>
+      <c r="K64" s="9">
+        <f>$J$52/J64</f>
+        <v>16.054061332345913</v>
+      </c>
+      <c r="L64" s="9">
         <f t="shared" si="19"/>
-        <v>0.59849620455050168</v>
-      </c>
-      <c r="M64" s="12">
+        <v>0.66891922218107969</v>
+      </c>
+      <c r="M64" s="9">
         <f t="shared" si="20"/>
-        <v>792528</v>
+        <v>712968</v>
       </c>
     </row>
   </sheetData>
@@ -20322,29 +20568,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M62"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" customWidth="1"/>
+    <col min="11" max="12" width="12.21875" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
     <col min="14" max="14" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -20360,10 +20605,10 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="18"/>
+      <c r="A6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
@@ -20395,18 +20640,18 @@
         <v>9</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="A7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="13"/>
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>1</v>
       </c>
       <c r="E7" s="1">
@@ -20440,14 +20685,14 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="20"/>
+      <c r="A8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="17"/>
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>2</v>
       </c>
       <c r="E8" s="1">
@@ -20487,7 +20732,7 @@
       <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>4</v>
       </c>
       <c r="E9" s="1">
@@ -20527,7 +20772,7 @@
       <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>6</v>
       </c>
       <c r="E10" s="1">
@@ -20567,7 +20812,7 @@
       <c r="C11" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>8</v>
       </c>
       <c r="E11" s="1">
@@ -20607,7 +20852,7 @@
       <c r="C12" s="6">
         <v>6</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>10</v>
       </c>
       <c r="E12" s="1">
@@ -20647,7 +20892,7 @@
       <c r="C13" s="6">
         <v>7</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>12</v>
       </c>
       <c r="E13" s="1">
@@ -20687,7 +20932,7 @@
       <c r="C14" s="6">
         <v>8</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>14</v>
       </c>
       <c r="E14" s="1">
@@ -20726,7 +20971,7 @@
       <c r="C15" s="6">
         <v>9</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>16</v>
       </c>
       <c r="E15" s="1">
@@ -20765,7 +21010,7 @@
       <c r="C16" s="6">
         <v>10</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>18</v>
       </c>
       <c r="E16" s="1">
@@ -20804,7 +21049,7 @@
       <c r="C17" s="6">
         <v>11</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>20</v>
       </c>
       <c r="E17" s="1">
@@ -20843,7 +21088,7 @@
       <c r="C18" s="6">
         <v>12</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>22</v>
       </c>
       <c r="E18" s="1">
@@ -20882,7 +21127,7 @@
       <c r="C19" s="6">
         <v>13</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>24</v>
       </c>
       <c r="E19" s="1">
@@ -20921,10 +21166,10 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="19"/>
+      <c r="A21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="16"/>
       <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
@@ -20956,18 +21201,18 @@
         <v>9</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="20"/>
+      <c r="A22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="17"/>
       <c r="C22" s="6">
         <v>1</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>1</v>
       </c>
       <c r="E22" s="1">
@@ -21001,14 +21246,14 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="20"/>
+      <c r="A23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="17"/>
       <c r="C23" s="6">
         <v>2</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>2</v>
       </c>
       <c r="E23" s="1">
@@ -21048,7 +21293,7 @@
       <c r="C24" s="6">
         <v>3</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>4</v>
       </c>
       <c r="E24" s="1">
@@ -21088,7 +21333,7 @@
       <c r="C25" s="6">
         <v>4</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>6</v>
       </c>
       <c r="E25" s="1">
@@ -21128,7 +21373,7 @@
       <c r="C26" s="6">
         <v>5</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>8</v>
       </c>
       <c r="E26" s="1">
@@ -21168,7 +21413,7 @@
       <c r="C27" s="6">
         <v>6</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>10</v>
       </c>
       <c r="E27" s="1">
@@ -21208,7 +21453,7 @@
       <c r="C28" s="6">
         <v>7</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>12</v>
       </c>
       <c r="E28" s="1">
@@ -21248,7 +21493,7 @@
       <c r="C29" s="6">
         <v>8</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>14</v>
       </c>
       <c r="E29" s="1">
@@ -21287,7 +21532,7 @@
       <c r="C30" s="6">
         <v>9</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>16</v>
       </c>
       <c r="E30" s="1">
@@ -21326,7 +21571,7 @@
       <c r="C31" s="6">
         <v>10</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="8">
         <v>18</v>
       </c>
       <c r="E31" s="1">
@@ -21365,7 +21610,7 @@
       <c r="C32" s="6">
         <v>11</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <v>20</v>
       </c>
       <c r="E32" s="1">
@@ -21404,7 +21649,7 @@
       <c r="C33" s="6">
         <v>12</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <v>22</v>
       </c>
       <c r="E33" s="1">
@@ -21443,7 +21688,7 @@
       <c r="C34" s="6">
         <v>13</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>24</v>
       </c>
       <c r="E34" s="1">
@@ -21479,10 +21724,10 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="18"/>
+      <c r="A36" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="15"/>
       <c r="C36" s="3" t="s">
         <v>0</v>
       </c>
@@ -21514,18 +21759,18 @@
         <v>9</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="16"/>
+      <c r="A37" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="13"/>
       <c r="C37" s="6">
         <v>1</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>1</v>
       </c>
       <c r="E37" s="1">
@@ -21559,14 +21804,14 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="20"/>
+      <c r="A38" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="17"/>
       <c r="C38" s="6">
         <v>2</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="8">
         <v>2</v>
       </c>
       <c r="E38" s="1">
@@ -21606,7 +21851,7 @@
       <c r="C39" s="6">
         <v>3</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="8">
         <v>4</v>
       </c>
       <c r="E39" s="1">
@@ -21646,7 +21891,7 @@
       <c r="C40" s="6">
         <v>4</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="8">
         <v>6</v>
       </c>
       <c r="E40" s="1">
@@ -21686,7 +21931,7 @@
       <c r="C41" s="6">
         <v>5</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="8">
         <v>8</v>
       </c>
       <c r="E41" s="1">
@@ -21726,7 +21971,7 @@
       <c r="C42" s="6">
         <v>6</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="8">
         <v>10</v>
       </c>
       <c r="E42" s="1">
@@ -21766,7 +22011,7 @@
       <c r="C43" s="6">
         <v>7</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="8">
         <v>12</v>
       </c>
       <c r="E43" s="1">
@@ -21806,7 +22051,7 @@
       <c r="C44" s="6">
         <v>8</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="8">
         <v>14</v>
       </c>
       <c r="E44" s="1">
@@ -21846,7 +22091,7 @@
       <c r="C45" s="6">
         <v>9</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="8">
         <v>16</v>
       </c>
       <c r="E45" s="1">
@@ -21885,7 +22130,7 @@
       <c r="C46" s="6">
         <v>10</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="8">
         <v>18</v>
       </c>
       <c r="E46" s="1">
@@ -21924,7 +22169,7 @@
       <c r="C47" s="6">
         <v>11</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="8">
         <v>20</v>
       </c>
       <c r="E47" s="1">
@@ -21963,7 +22208,7 @@
       <c r="C48" s="6">
         <v>12</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="8">
         <v>22</v>
       </c>
       <c r="E48" s="1">
@@ -22002,7 +22247,7 @@
       <c r="C49" s="6">
         <v>13</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="8">
         <v>24</v>
       </c>
       <c r="E49" s="1">
@@ -22038,184 +22283,184 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="14"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="11"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="14"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="11"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="14"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="11"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="14"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="11"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="14"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="11"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="14"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="11"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="14"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="11"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="14"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="11"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="14"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="11"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="14"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="11"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="14"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="11"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="14"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -22239,8 +22484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22257,12 +22502,12 @@
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -22278,10 +22523,10 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="18"/>
+      <c r="A6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
@@ -22313,28 +22558,28 @@
         <v>9</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="A7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="13"/>
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>214913</v>
       </c>
       <c r="F7" s="1">
-        <v>341368</v>
+        <v>241368</v>
       </c>
       <c r="G7" s="1">
-        <v>309733</v>
+        <v>209733</v>
       </c>
       <c r="H7">
         <v>188510</v>
@@ -22358,36 +22603,46 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
       <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>2</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="E8" s="1">
+        <v>95843</v>
+      </c>
+      <c r="F8" s="1">
+        <v>95177</v>
+      </c>
+      <c r="G8" s="1">
+        <v>95754</v>
+      </c>
+      <c r="H8" s="1">
+        <v>95781</v>
+      </c>
+      <c r="I8" s="1">
+        <v>96154</v>
+      </c>
       <c r="J8" s="7">
         <f t="shared" ref="J8:J19" si="1">MIN(E8:I8)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="7" t="e">
+        <v>95177</v>
+      </c>
+      <c r="K8" s="7">
         <f t="shared" ref="K8:K19" si="2">$J$7/J8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="7" t="e">
+        <v>1.9806255713039915</v>
+      </c>
+      <c r="L8" s="7">
         <f t="shared" ref="L8:L19" si="3">K8/D8</f>
-        <v>#DIV/0!</v>
+        <v>0.99031278565199576</v>
       </c>
       <c r="M8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>190354</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -22395,29 +22650,39 @@
       <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>4</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="E9" s="1">
+        <v>48400</v>
+      </c>
+      <c r="F9" s="1">
+        <v>48040</v>
+      </c>
+      <c r="G9" s="1">
+        <v>47914</v>
+      </c>
+      <c r="H9" s="1">
+        <v>48166</v>
+      </c>
+      <c r="I9" s="1">
+        <v>48362</v>
+      </c>
       <c r="J9" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="7" t="e">
+        <v>47914</v>
+      </c>
+      <c r="K9" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" s="7" t="e">
+        <v>3.9343406937429561</v>
+      </c>
+      <c r="L9" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.98358517343573904</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>191656</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -22425,29 +22690,39 @@
       <c r="C10" s="6">
         <v>4</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>6</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="E10" s="1">
+        <v>32672</v>
+      </c>
+      <c r="F10" s="1">
+        <v>32748</v>
+      </c>
+      <c r="G10" s="1">
+        <v>32780</v>
+      </c>
+      <c r="H10" s="1">
+        <v>32802</v>
+      </c>
+      <c r="I10" s="1">
+        <v>32695</v>
+      </c>
       <c r="J10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="7" t="e">
+        <v>32672</v>
+      </c>
+      <c r="K10" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="7" t="e">
+        <v>5.7697722820763957</v>
+      </c>
+      <c r="L10" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.96162871367939928</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>196032</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -22455,29 +22730,39 @@
       <c r="C11" s="6">
         <v>5</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>8</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="E11" s="1">
+        <v>25183</v>
+      </c>
+      <c r="F11" s="1">
+        <v>25139</v>
+      </c>
+      <c r="G11" s="1">
+        <v>25251</v>
+      </c>
+      <c r="H11" s="1">
+        <v>25431</v>
+      </c>
+      <c r="I11" s="1">
+        <v>25534</v>
+      </c>
       <c r="J11" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="7" t="e">
+        <v>25139</v>
+      </c>
+      <c r="K11" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" s="7" t="e">
+        <v>7.498707188034528</v>
+      </c>
+      <c r="L11" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.93733839850431599</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>201112</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -22485,29 +22770,39 @@
       <c r="C12" s="6">
         <v>6</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>10</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="E12" s="1">
+        <v>20489</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20520</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20644</v>
+      </c>
+      <c r="H12" s="1">
+        <v>20600</v>
+      </c>
+      <c r="I12" s="1">
+        <v>20729</v>
+      </c>
       <c r="J12" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="7" t="e">
+        <v>20489</v>
+      </c>
+      <c r="K12" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="7" t="e">
+        <v>9.2005466347796379</v>
+      </c>
+      <c r="L12" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.92005466347796383</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>204890</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -22515,29 +22810,39 @@
       <c r="C13" s="6">
         <v>7</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>12</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="E13" s="1">
+        <v>17429</v>
+      </c>
+      <c r="F13" s="1">
+        <v>17574</v>
+      </c>
+      <c r="G13" s="1">
+        <v>17722</v>
+      </c>
+      <c r="H13" s="1">
+        <v>17796</v>
+      </c>
+      <c r="I13" s="1">
+        <v>17784</v>
+      </c>
       <c r="J13" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="7" t="e">
+        <v>17429</v>
+      </c>
+      <c r="K13" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" s="7" t="e">
+        <v>10.815881576682541</v>
+      </c>
+      <c r="L13" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.90132346472354508</v>
       </c>
       <c r="M13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>209148</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -22545,29 +22850,39 @@
       <c r="C14" s="6">
         <v>8</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>14</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="E14" s="1">
+        <v>15354</v>
+      </c>
+      <c r="F14" s="1">
+        <v>15161</v>
+      </c>
+      <c r="G14" s="1">
+        <v>15224</v>
+      </c>
+      <c r="H14" s="1">
+        <v>15135</v>
+      </c>
+      <c r="I14" s="1">
+        <v>15318</v>
+      </c>
       <c r="J14" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="7" t="e">
+        <v>15135</v>
+      </c>
+      <c r="K14" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" s="7" t="e">
+        <v>12.455236207466138</v>
+      </c>
+      <c r="L14" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.88965972910472413</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>211890</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -22575,29 +22890,39 @@
       <c r="C15" s="6">
         <v>9</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>16</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="E15" s="1">
+        <v>14051</v>
+      </c>
+      <c r="F15" s="1">
+        <v>14324</v>
+      </c>
+      <c r="G15" s="1">
+        <v>14287</v>
+      </c>
+      <c r="H15" s="1">
+        <v>14359</v>
+      </c>
+      <c r="I15" s="1">
+        <v>13819</v>
+      </c>
       <c r="J15" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="7" t="e">
+        <v>13819</v>
+      </c>
+      <c r="K15" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="7" t="e">
+        <v>13.641363340328533</v>
+      </c>
+      <c r="L15" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.85258520877053334</v>
       </c>
       <c r="M15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>221104</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -22605,29 +22930,39 @@
       <c r="C16" s="6">
         <v>10</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>18</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="E16" s="1">
+        <v>13793</v>
+      </c>
+      <c r="F16" s="1">
+        <v>13749</v>
+      </c>
+      <c r="G16" s="1">
+        <v>13747</v>
+      </c>
+      <c r="H16" s="1">
+        <v>13839</v>
+      </c>
+      <c r="I16" s="1">
+        <v>13807</v>
+      </c>
       <c r="J16" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="7" t="e">
+        <v>13747</v>
+      </c>
+      <c r="K16" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="7" t="e">
+        <v>13.712810067651123</v>
+      </c>
+      <c r="L16" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.76182278153617355</v>
       </c>
       <c r="M16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>247446</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -22635,29 +22970,39 @@
       <c r="C17" s="6">
         <v>11</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>20</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="E17" s="1">
+        <v>13330</v>
+      </c>
+      <c r="F17" s="1">
+        <v>13423</v>
+      </c>
+      <c r="G17" s="1">
+        <v>13513</v>
+      </c>
+      <c r="H17" s="1">
+        <v>13292</v>
+      </c>
+      <c r="I17" s="1">
+        <v>13181</v>
+      </c>
       <c r="J17" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="7" t="e">
+        <v>13181</v>
+      </c>
+      <c r="K17" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="7" t="e">
+        <v>14.301646309081253</v>
+      </c>
+      <c r="L17" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.71508231545406264</v>
       </c>
       <c r="M17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>263620</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -22665,29 +23010,39 @@
       <c r="C18" s="6">
         <v>12</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>22</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="E18" s="1">
+        <v>12811</v>
+      </c>
+      <c r="F18" s="1">
+        <v>12772</v>
+      </c>
+      <c r="G18" s="1">
+        <v>12784</v>
+      </c>
+      <c r="H18" s="1">
+        <v>12908</v>
+      </c>
+      <c r="I18" s="1">
+        <v>13031</v>
+      </c>
       <c r="J18" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="7" t="e">
+        <v>12772</v>
+      </c>
+      <c r="K18" s="7">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="7" t="e">
+        <v>14.75963044159098</v>
+      </c>
+      <c r="L18" s="7">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.67089229279959006</v>
       </c>
       <c r="M18" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>280984</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -22695,7 +23050,7 @@
       <c r="C19" s="6">
         <v>13</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>24</v>
       </c>
       <c r="E19" s="1">
@@ -22734,10 +23089,10 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="19"/>
+      <c r="A21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="16"/>
       <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
@@ -22769,18 +23124,18 @@
         <v>9</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="20"/>
+      <c r="A22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="17"/>
       <c r="C22" s="6">
         <v>1</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>1</v>
       </c>
       <c r="E22" s="1">
@@ -22814,36 +23169,46 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="20"/>
+      <c r="A23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="17"/>
       <c r="C23" s="6">
         <v>2</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>2</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="E23" s="1">
+        <v>148329</v>
+      </c>
+      <c r="F23" s="1">
+        <v>148960</v>
+      </c>
+      <c r="G23" s="1">
+        <v>148464</v>
+      </c>
+      <c r="H23" s="1">
+        <v>150827</v>
+      </c>
+      <c r="I23" s="1">
+        <v>148220</v>
+      </c>
       <c r="J23" s="7">
         <f t="shared" ref="J23:J34" si="5">MIN(E23:I23)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="7" t="e">
+        <v>148220</v>
+      </c>
+      <c r="K23" s="7">
         <f t="shared" ref="K23:K34" si="6">$J$22/J23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" s="7" t="e">
+        <v>1.9783767372824179</v>
+      </c>
+      <c r="L23" s="7">
         <f t="shared" ref="L23:L34" si="7">K23/D23</f>
-        <v>#DIV/0!</v>
+        <v>0.98918836864120896</v>
       </c>
       <c r="M23" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>296440</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -22851,29 +23216,39 @@
       <c r="C24" s="6">
         <v>3</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>4</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="E24" s="1">
+        <v>75613</v>
+      </c>
+      <c r="F24" s="1">
+        <v>75121</v>
+      </c>
+      <c r="G24" s="1">
+        <v>75123</v>
+      </c>
+      <c r="H24" s="1">
+        <v>75223</v>
+      </c>
+      <c r="I24" s="1">
+        <v>75532</v>
+      </c>
       <c r="J24" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="7" t="e">
+        <v>75121</v>
+      </c>
+      <c r="K24" s="7">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" s="7" t="e">
+        <v>3.9035023495427379</v>
+      </c>
+      <c r="L24" s="7">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.97587558738568447</v>
       </c>
       <c r="M24" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>300484</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -22881,29 +23256,39 @@
       <c r="C25" s="6">
         <v>4</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>6</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="E25" s="1">
+        <v>51224</v>
+      </c>
+      <c r="F25" s="1">
+        <v>51378</v>
+      </c>
+      <c r="G25" s="1">
+        <v>51314</v>
+      </c>
+      <c r="H25" s="1">
+        <v>51660</v>
+      </c>
+      <c r="I25" s="1">
+        <v>51261</v>
+      </c>
       <c r="J25" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="7" t="e">
+        <v>51224</v>
+      </c>
+      <c r="K25" s="7">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" s="7" t="e">
+        <v>5.7245627049820396</v>
+      </c>
+      <c r="L25" s="7">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.9540937841636733</v>
       </c>
       <c r="M25" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>307344</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -22911,29 +23296,39 @@
       <c r="C26" s="6">
         <v>5</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>8</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="E26" s="1">
+        <v>39114</v>
+      </c>
+      <c r="F26" s="1">
+        <v>39118</v>
+      </c>
+      <c r="G26" s="1">
+        <v>39103</v>
+      </c>
+      <c r="H26" s="1">
+        <v>39062</v>
+      </c>
+      <c r="I26" s="1">
+        <v>39088</v>
+      </c>
       <c r="J26" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="7" t="e">
+        <v>39062</v>
+      </c>
+      <c r="K26" s="7">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" s="7" t="e">
+        <v>7.5069120884747322</v>
+      </c>
+      <c r="L26" s="7">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.93836401105934153</v>
       </c>
       <c r="M26" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>312496</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -22941,29 +23336,39 @@
       <c r="C27" s="6">
         <v>6</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>10</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="E27" s="1">
+        <v>31990</v>
+      </c>
+      <c r="F27" s="1">
+        <v>31790</v>
+      </c>
+      <c r="G27" s="1">
+        <v>31861</v>
+      </c>
+      <c r="H27" s="1">
+        <v>31808</v>
+      </c>
+      <c r="I27" s="1">
+        <v>31858</v>
+      </c>
       <c r="J27" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="7" t="e">
+        <v>31790</v>
+      </c>
+      <c r="K27" s="7">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="7" t="e">
+        <v>9.2241270839886749</v>
+      </c>
+      <c r="L27" s="7">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.92241270839886746</v>
       </c>
       <c r="M27" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>317900</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -22971,29 +23376,39 @@
       <c r="C28" s="6">
         <v>7</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>12</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="E28" s="1">
+        <v>26944</v>
+      </c>
+      <c r="F28" s="1">
+        <v>27657</v>
+      </c>
+      <c r="G28" s="1">
+        <v>26983</v>
+      </c>
+      <c r="H28" s="1">
+        <v>26921</v>
+      </c>
+      <c r="I28" s="1">
+        <v>27010</v>
+      </c>
       <c r="J28" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="7" t="e">
+        <v>26921</v>
+      </c>
+      <c r="K28" s="7">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" s="7" t="e">
+        <v>10.892425987147581</v>
+      </c>
+      <c r="L28" s="7">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.90770216559563177</v>
       </c>
       <c r="M28" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>323052</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -23001,29 +23416,39 @@
       <c r="C29" s="6">
         <v>8</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>14</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="E29" s="1">
+        <v>23429</v>
+      </c>
+      <c r="F29" s="1">
+        <v>23461</v>
+      </c>
+      <c r="G29" s="1">
+        <v>23462</v>
+      </c>
+      <c r="H29" s="1">
+        <v>23497</v>
+      </c>
+      <c r="I29" s="1">
+        <v>23416</v>
+      </c>
       <c r="J29" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="7" t="e">
+        <v>23416</v>
+      </c>
+      <c r="K29" s="7">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="7" t="e">
+        <v>12.522847625555176</v>
+      </c>
+      <c r="L29" s="7">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.89448911611108406</v>
       </c>
       <c r="M29" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>327824</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -23031,29 +23456,39 @@
       <c r="C30" s="6">
         <v>9</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>16</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="E30" s="1">
+        <v>21367</v>
+      </c>
+      <c r="F30" s="1">
+        <v>21429</v>
+      </c>
+      <c r="G30" s="1">
+        <v>21429</v>
+      </c>
+      <c r="H30" s="1">
+        <v>21687</v>
+      </c>
+      <c r="I30" s="1">
+        <v>22171</v>
+      </c>
       <c r="J30" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="7" t="e">
+        <v>21367</v>
+      </c>
+      <c r="K30" s="7">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" s="7" t="e">
+        <v>13.723732859081762</v>
+      </c>
+      <c r="L30" s="7">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.85773330369261014</v>
       </c>
       <c r="M30" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>341872</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -23061,29 +23496,39 @@
       <c r="C31" s="6">
         <v>10</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="8">
         <v>18</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="E31" s="1">
+        <v>20889</v>
+      </c>
+      <c r="F31" s="1">
+        <v>20903</v>
+      </c>
+      <c r="G31" s="1">
+        <v>20854</v>
+      </c>
+      <c r="H31" s="1">
+        <v>20916</v>
+      </c>
+      <c r="I31" s="1">
+        <v>21011</v>
+      </c>
       <c r="J31" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="7" t="e">
+        <v>20854</v>
+      </c>
+      <c r="K31" s="7">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" s="7" t="e">
+        <v>14.061331159489786</v>
+      </c>
+      <c r="L31" s="7">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.78118506441609925</v>
       </c>
       <c r="M31" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>375372</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -23091,29 +23536,39 @@
       <c r="C32" s="6">
         <v>11</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <v>20</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="E32" s="1">
+        <v>20284</v>
+      </c>
+      <c r="F32" s="1">
+        <v>20584</v>
+      </c>
+      <c r="G32" s="1">
+        <v>20410</v>
+      </c>
+      <c r="H32" s="1">
+        <v>20340</v>
+      </c>
+      <c r="I32" s="1">
+        <v>20292</v>
+      </c>
       <c r="J32" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="7" t="e">
+        <v>20284</v>
+      </c>
+      <c r="K32" s="7">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="7" t="e">
+        <v>14.456468152238218</v>
+      </c>
+      <c r="L32" s="7">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.72282340761191088</v>
       </c>
       <c r="M32" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>405680</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -23121,29 +23576,39 @@
       <c r="C33" s="6">
         <v>12</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <v>22</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="E33" s="1">
+        <v>19422</v>
+      </c>
+      <c r="F33" s="1">
+        <v>19561</v>
+      </c>
+      <c r="G33" s="1">
+        <v>19503</v>
+      </c>
+      <c r="H33" s="1">
+        <v>19577</v>
+      </c>
+      <c r="I33" s="1">
+        <v>19702</v>
+      </c>
       <c r="J33" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="7" t="e">
+        <v>19422</v>
+      </c>
+      <c r="K33" s="7">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L33" s="7" t="e">
+        <v>15.098084646277417</v>
+      </c>
+      <c r="L33" s="7">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.68627657483079174</v>
       </c>
       <c r="M33" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>427284</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -23151,7 +23616,7 @@
       <c r="C34" s="6">
         <v>13</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>24</v>
       </c>
       <c r="E34" s="1">
@@ -23187,10 +23652,10 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="18"/>
+      <c r="A36" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="15"/>
       <c r="C36" s="3" t="s">
         <v>0</v>
       </c>
@@ -23222,18 +23687,18 @@
         <v>9</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="16"/>
+      <c r="A37" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="13"/>
       <c r="C37" s="6">
         <v>1</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>1</v>
       </c>
       <c r="E37" s="1">
@@ -23267,36 +23732,46 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="16"/>
+      <c r="A38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="13"/>
       <c r="C38" s="6">
         <v>2</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="8">
         <v>2</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="E38" s="1">
+        <v>228828</v>
+      </c>
+      <c r="F38" s="1">
+        <v>228726</v>
+      </c>
+      <c r="G38" s="1">
+        <v>228762</v>
+      </c>
+      <c r="H38" s="1">
+        <v>228279</v>
+      </c>
+      <c r="I38" s="1">
+        <v>228756</v>
+      </c>
       <c r="J38" s="7">
         <f t="shared" ref="J38:J49" si="9">MIN(E38:I38)</f>
-        <v>0</v>
-      </c>
-      <c r="K38" s="7" t="e">
+        <v>228279</v>
+      </c>
+      <c r="K38" s="7">
         <f t="shared" ref="K38:K49" si="10">$J$37/J38</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="7" t="e">
+        <v>1.9695109931268315</v>
+      </c>
+      <c r="L38" s="7">
         <f t="shared" ref="L38:L49" si="11">K38/D38</f>
-        <v>#DIV/0!</v>
+        <v>0.98475549656341577</v>
       </c>
       <c r="M38" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>456558</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -23304,29 +23779,39 @@
       <c r="C39" s="6">
         <v>3</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="8">
         <v>4</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="E39" s="1">
+        <v>116063</v>
+      </c>
+      <c r="F39" s="1">
+        <v>116361</v>
+      </c>
+      <c r="G39" s="1">
+        <v>116263</v>
+      </c>
+      <c r="H39" s="1">
+        <v>116891</v>
+      </c>
+      <c r="I39" s="1">
+        <v>116479</v>
+      </c>
       <c r="J39" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="7" t="e">
+        <v>116063</v>
+      </c>
+      <c r="K39" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="7" t="e">
+        <v>3.8737409854992548</v>
+      </c>
+      <c r="L39" s="7">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.96843524637481371</v>
       </c>
       <c r="M39" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>464252</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -23334,29 +23819,39 @@
       <c r="C40" s="6">
         <v>4</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="8">
         <v>6</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="E40" s="1">
+        <v>78708</v>
+      </c>
+      <c r="F40" s="1">
+        <v>80563</v>
+      </c>
+      <c r="G40" s="1">
+        <v>78972</v>
+      </c>
+      <c r="H40" s="1">
+        <v>78890</v>
+      </c>
+      <c r="I40" s="1">
+        <v>78943</v>
+      </c>
       <c r="J40" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="7" t="e">
+        <v>78708</v>
+      </c>
+      <c r="K40" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" s="7" t="e">
+        <v>5.712227473700259</v>
+      </c>
+      <c r="L40" s="7">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.95203791228337653</v>
       </c>
       <c r="M40" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>472248</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -23364,29 +23859,39 @@
       <c r="C41" s="6">
         <v>5</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="8">
         <v>8</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="E41" s="1">
+        <v>60213</v>
+      </c>
+      <c r="F41" s="1">
+        <v>60589</v>
+      </c>
+      <c r="G41" s="1">
+        <v>60277</v>
+      </c>
+      <c r="H41" s="1">
+        <v>60352</v>
+      </c>
+      <c r="I41" s="1">
+        <v>60134</v>
+      </c>
       <c r="J41" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="7" t="e">
+        <v>60134</v>
+      </c>
+      <c r="K41" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L41" s="7" t="e">
+        <v>7.4766022549639137</v>
+      </c>
+      <c r="L41" s="7">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.93457528187048922</v>
       </c>
       <c r="M41" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>481072</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -23394,29 +23899,39 @@
       <c r="C42" s="6">
         <v>6</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="8">
         <v>10</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="E42" s="1">
+        <v>49484</v>
+      </c>
+      <c r="F42" s="1">
+        <v>49003</v>
+      </c>
+      <c r="G42" s="1">
+        <v>49049</v>
+      </c>
+      <c r="H42" s="1">
+        <v>48845</v>
+      </c>
+      <c r="I42" s="1">
+        <v>48785</v>
+      </c>
       <c r="J42" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="7" t="e">
+        <v>48785</v>
+      </c>
+      <c r="K42" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L42" s="7" t="e">
+        <v>9.2159065286460997</v>
+      </c>
+      <c r="L42" s="7">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.92159065286460995</v>
       </c>
       <c r="M42" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>487850</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -23424,29 +23939,39 @@
       <c r="C43" s="6">
         <v>7</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="8">
         <v>12</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="E43" s="1">
+        <v>41494</v>
+      </c>
+      <c r="F43" s="1">
+        <v>41463</v>
+      </c>
+      <c r="G43" s="1">
+        <v>41397</v>
+      </c>
+      <c r="H43" s="1">
+        <v>41524</v>
+      </c>
+      <c r="I43" s="1">
+        <v>41373</v>
+      </c>
       <c r="J43" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="7" t="e">
+        <v>41373</v>
+      </c>
+      <c r="K43" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L43" s="7" t="e">
+        <v>10.866942208686824</v>
+      </c>
+      <c r="L43" s="7">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.90557851739056872</v>
       </c>
       <c r="M43" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>496476</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -23454,29 +23979,39 @@
       <c r="C44" s="6">
         <v>8</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="8">
         <v>14</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="E44" s="1">
+        <v>35965</v>
+      </c>
+      <c r="F44" s="1">
+        <v>36120</v>
+      </c>
+      <c r="G44" s="1">
+        <v>36153</v>
+      </c>
+      <c r="H44" s="1">
+        <v>36149</v>
+      </c>
+      <c r="I44" s="1">
+        <v>36166</v>
+      </c>
       <c r="J44" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="7" t="e">
+        <v>35965</v>
+      </c>
+      <c r="K44" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L44" s="7" t="e">
+        <v>12.500987070763243</v>
+      </c>
+      <c r="L44" s="7">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.89292764791166024</v>
       </c>
       <c r="M44" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>503510</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -23484,123 +24019,163 @@
       <c r="C45" s="6">
         <v>9</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="8">
         <v>16</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="E45" s="1">
+        <v>32922</v>
+      </c>
+      <c r="F45" s="1">
+        <v>33411</v>
+      </c>
+      <c r="G45" s="1">
+        <v>33222</v>
+      </c>
+      <c r="H45" s="1">
+        <v>33238</v>
+      </c>
+      <c r="I45" s="1">
+        <v>33101</v>
+      </c>
       <c r="J45" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="7" t="e">
+        <v>32922</v>
+      </c>
+      <c r="K45" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L45" s="7" t="e">
+        <v>13.656460725350829</v>
+      </c>
+      <c r="L45" s="7">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.85352879533442683</v>
       </c>
       <c r="M45" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>526752</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C46" s="6">
         <v>10</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="8">
         <v>18</v>
       </c>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="E46" s="1">
+        <v>32010</v>
+      </c>
+      <c r="F46" s="1">
+        <v>32743</v>
+      </c>
+      <c r="G46" s="1">
+        <v>32080</v>
+      </c>
+      <c r="H46" s="1">
+        <v>32157</v>
+      </c>
+      <c r="I46" s="1">
+        <v>32729</v>
+      </c>
       <c r="J46" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="7" t="e">
+        <v>32010</v>
+      </c>
+      <c r="K46" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L46" s="7" t="e">
+        <v>14.045548266166822</v>
+      </c>
+      <c r="L46" s="7">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.78030823700926788</v>
       </c>
       <c r="M46" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>576180</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C47" s="6">
         <v>11</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="8">
         <v>20</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="E47" s="1">
+        <v>32203</v>
+      </c>
+      <c r="F47" s="1">
+        <v>31493</v>
+      </c>
+      <c r="G47" s="1">
+        <v>30965</v>
+      </c>
+      <c r="H47" s="1">
+        <v>31105</v>
+      </c>
+      <c r="I47" s="1">
+        <v>30957</v>
+      </c>
       <c r="J47" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="7" t="e">
+        <v>30957</v>
+      </c>
+      <c r="K47" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L47" s="7" t="e">
+        <v>14.523306521949801</v>
+      </c>
+      <c r="L47" s="7">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.72616532609749007</v>
       </c>
       <c r="M47" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>619140</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C48" s="6">
         <v>12</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="8">
         <v>22</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="E48" s="1">
+        <v>29722</v>
+      </c>
+      <c r="F48" s="1">
+        <v>30303</v>
+      </c>
+      <c r="G48" s="1">
+        <v>29887</v>
+      </c>
+      <c r="H48" s="1">
+        <v>30108</v>
+      </c>
+      <c r="I48" s="1">
+        <v>29942</v>
+      </c>
       <c r="J48" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="7" t="e">
+        <v>29722</v>
+      </c>
+      <c r="K48" s="7">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L48" s="7" t="e">
+        <v>15.126774779624521</v>
+      </c>
+      <c r="L48" s="7">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>0.6875806718011146</v>
       </c>
       <c r="M48" s="7">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>653884</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C49" s="6">
         <v>13</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="8">
         <v>24</v>
       </c>
       <c r="E49" s="1">
@@ -23636,10 +24211,10 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="18"/>
+      <c r="A51" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="15"/>
       <c r="C51" s="3" t="s">
         <v>0</v>
       </c>
@@ -23671,18 +24246,18 @@
         <v>9</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="16"/>
+      <c r="A52" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="13"/>
       <c r="C52" s="6">
         <v>1</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="8">
         <v>1</v>
       </c>
       <c r="E52" s="1">
@@ -23716,36 +24291,46 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="16"/>
+      <c r="A53" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="13"/>
       <c r="C53" s="6">
         <v>2</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="8">
         <v>2</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
+      <c r="E53" s="1">
+        <v>308485</v>
+      </c>
+      <c r="F53" s="1">
+        <v>309761</v>
+      </c>
+      <c r="G53" s="1">
+        <v>308567</v>
+      </c>
+      <c r="H53" s="1">
+        <v>319427</v>
+      </c>
+      <c r="I53" s="1">
+        <v>309230</v>
+      </c>
       <c r="J53" s="7">
         <f t="shared" ref="J53:J64" si="13">MIN(E53:I53)</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="7" t="e">
+        <v>308485</v>
+      </c>
+      <c r="K53" s="7">
         <f>$J$52/J53</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L53" s="7" t="e">
+        <v>1.972322803377798</v>
+      </c>
+      <c r="L53" s="7">
         <f t="shared" ref="L53:L64" si="14">K53/D53</f>
-        <v>#DIV/0!</v>
+        <v>0.98616140168889899</v>
       </c>
       <c r="M53" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>616970</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
@@ -23753,29 +24338,39 @@
       <c r="C54" s="6">
         <v>3</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="8">
         <v>4</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="E54" s="1">
+        <v>158997</v>
+      </c>
+      <c r="F54" s="1">
+        <v>156728</v>
+      </c>
+      <c r="G54" s="1">
+        <v>156658</v>
+      </c>
+      <c r="H54" s="1">
+        <v>156889</v>
+      </c>
+      <c r="I54" s="1">
+        <v>156548</v>
+      </c>
       <c r="J54" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="7" t="e">
+        <v>156548</v>
+      </c>
+      <c r="K54" s="7">
         <f t="shared" ref="K54:K64" si="15">$J$52/J54</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L54" s="7" t="e">
+        <v>3.8865523673250375</v>
+      </c>
+      <c r="L54" s="7">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.97163809183125938</v>
       </c>
       <c r="M54" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>626192</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -23783,29 +24378,39 @@
       <c r="C55" s="6">
         <v>4</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="8">
         <v>6</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
+      <c r="E55" s="1">
+        <v>106745</v>
+      </c>
+      <c r="F55" s="1">
+        <v>106451</v>
+      </c>
+      <c r="G55" s="1">
+        <v>108319</v>
+      </c>
+      <c r="H55" s="1">
+        <v>106474</v>
+      </c>
+      <c r="I55" s="1">
+        <v>106657</v>
+      </c>
       <c r="J55" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="7" t="e">
+        <v>106451</v>
+      </c>
+      <c r="K55" s="7">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L55" s="7" t="e">
+        <v>5.7156062413692688</v>
+      </c>
+      <c r="L55" s="7">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.95260104022821146</v>
       </c>
       <c r="M55" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>638706</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -23813,29 +24418,39 @@
       <c r="C56" s="6">
         <v>5</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="8">
         <v>8</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="E56" s="1">
+        <v>81303</v>
+      </c>
+      <c r="F56" s="1">
+        <v>81429</v>
+      </c>
+      <c r="G56" s="1">
+        <v>81084</v>
+      </c>
+      <c r="H56" s="1">
+        <v>81321</v>
+      </c>
+      <c r="I56" s="1">
+        <v>81122</v>
+      </c>
       <c r="J56" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="7" t="e">
+        <v>81084</v>
+      </c>
+      <c r="K56" s="7">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L56" s="7" t="e">
+        <v>7.5037245325834938</v>
+      </c>
+      <c r="L56" s="7">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.93796556657293673</v>
       </c>
       <c r="M56" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>648672</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -23843,29 +24458,39 @@
       <c r="C57" s="6">
         <v>6</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="8">
         <v>10</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
+      <c r="E57" s="1">
+        <v>66216</v>
+      </c>
+      <c r="F57" s="1">
+        <v>66233</v>
+      </c>
+      <c r="G57" s="1">
+        <v>67193</v>
+      </c>
+      <c r="H57" s="1">
+        <v>66216</v>
+      </c>
+      <c r="I57" s="1">
+        <v>66098</v>
+      </c>
       <c r="J57" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="7" t="e">
+        <v>66098</v>
+      </c>
+      <c r="K57" s="7">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L57" s="7" t="e">
+        <v>9.2049986383854279</v>
+      </c>
+      <c r="L57" s="7">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.92049986383854276</v>
       </c>
       <c r="M57" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>660980</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -23873,29 +24498,39 @@
       <c r="C58" s="6">
         <v>7</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="8">
         <v>12</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
+      <c r="E58" s="1">
+        <v>56017</v>
+      </c>
+      <c r="F58" s="1">
+        <v>55720</v>
+      </c>
+      <c r="G58" s="1">
+        <v>56041</v>
+      </c>
+      <c r="H58" s="1">
+        <v>56126</v>
+      </c>
+      <c r="I58" s="1">
+        <v>57959</v>
+      </c>
       <c r="J58" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="7" t="e">
+        <v>55720</v>
+      </c>
+      <c r="K58" s="7">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L58" s="7" t="e">
+        <v>10.919454414931803</v>
+      </c>
+      <c r="L58" s="7">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.90995453457765019</v>
       </c>
       <c r="M58" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>668640</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -23903,29 +24538,39 @@
       <c r="C59" s="6">
         <v>8</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="8">
         <v>14</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
+      <c r="E59" s="1">
+        <v>48723</v>
+      </c>
+      <c r="F59" s="1">
+        <v>48712</v>
+      </c>
+      <c r="G59" s="1">
+        <v>49227</v>
+      </c>
+      <c r="H59" s="1">
+        <v>48489</v>
+      </c>
+      <c r="I59" s="1">
+        <v>48559</v>
+      </c>
       <c r="J59" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K59" s="7" t="e">
+        <v>48489</v>
+      </c>
+      <c r="K59" s="7">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L59" s="7" t="e">
+        <v>12.547835591577471</v>
+      </c>
+      <c r="L59" s="7">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.89627397082696214</v>
       </c>
       <c r="M59" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>678846</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -23933,29 +24578,39 @@
       <c r="C60" s="6">
         <v>9</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="8">
         <v>16</v>
       </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
+      <c r="E60" s="1">
+        <v>44918</v>
+      </c>
+      <c r="F60" s="1">
+        <v>45323</v>
+      </c>
+      <c r="G60" s="1">
+        <v>45171</v>
+      </c>
+      <c r="H60" s="1">
+        <v>44783</v>
+      </c>
+      <c r="I60" s="1">
+        <v>44723</v>
+      </c>
       <c r="J60" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="7" t="e">
+        <v>44723</v>
+      </c>
+      <c r="K60" s="7">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L60" s="7" t="e">
+        <v>13.604454084028353</v>
+      </c>
+      <c r="L60" s="7">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.85027838025177205</v>
       </c>
       <c r="M60" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>715568</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -23963,29 +24618,39 @@
       <c r="C61" s="6">
         <v>10</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="8">
         <v>18</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
+      <c r="E61" s="1">
+        <v>43353</v>
+      </c>
+      <c r="F61" s="1">
+        <v>43473</v>
+      </c>
+      <c r="G61" s="1">
+        <v>43763</v>
+      </c>
+      <c r="H61" s="1">
+        <v>43216</v>
+      </c>
+      <c r="I61" s="1">
+        <v>43305</v>
+      </c>
       <c r="J61" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="7" t="e">
+        <v>43216</v>
+      </c>
+      <c r="K61" s="7">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L61" s="7" t="e">
+        <v>14.078859681599408</v>
+      </c>
+      <c r="L61" s="7">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
+        <v>0.78215887119996708</v>
       </c>
       <c r="M61" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>777888</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -23993,29 +24658,39 @@
       <c r="C62" s="6">
         <v>11</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="8">
         <v>20</v>
       </c>
-      <c r="E62" s="8"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="12">
+      <c r="E62" s="1">
+        <v>42117</v>
+      </c>
+      <c r="F62" s="1">
+        <v>42086</v>
+      </c>
+      <c r="G62" s="1">
+        <v>42028</v>
+      </c>
+      <c r="H62" s="1">
+        <v>41962</v>
+      </c>
+      <c r="I62" s="1">
+        <v>41782</v>
+      </c>
+      <c r="J62" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="12" t="e">
+        <v>41782</v>
+      </c>
+      <c r="K62" s="9">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L62" s="12" t="e">
+        <v>14.562060217318463</v>
+      </c>
+      <c r="L62" s="9">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M62" s="12">
+        <v>0.72810301086592311</v>
+      </c>
+      <c r="M62" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>835640</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -24023,29 +24698,39 @@
       <c r="C63" s="6">
         <v>12</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="8">
         <v>22</v>
       </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="12">
+      <c r="E63" s="1">
+        <v>40179</v>
+      </c>
+      <c r="F63" s="1">
+        <v>40320</v>
+      </c>
+      <c r="G63" s="1">
+        <v>40252</v>
+      </c>
+      <c r="H63" s="1">
+        <v>40336</v>
+      </c>
+      <c r="I63" s="1">
+        <v>40256</v>
+      </c>
+      <c r="J63" s="9">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K63" s="12" t="e">
+        <v>40179</v>
+      </c>
+      <c r="K63" s="9">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L63" s="12" t="e">
+        <v>15.143034918738644</v>
+      </c>
+      <c r="L63" s="9">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M63" s="12">
+        <v>0.68831976903357472</v>
+      </c>
+      <c r="M63" s="9">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>883938</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -24053,7 +24738,7 @@
       <c r="C64" s="6">
         <v>13</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="8">
         <v>24</v>
       </c>
       <c r="E64" s="1">
@@ -24071,19 +24756,19 @@
       <c r="I64">
         <v>38628</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J64" s="9">
         <f t="shared" si="13"/>
         <v>38555</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K64" s="9">
         <f t="shared" si="15"/>
         <v>15.780884450784594</v>
       </c>
-      <c r="L64" s="12">
+      <c r="L64" s="9">
         <f t="shared" si="14"/>
         <v>0.65753685211602475</v>
       </c>
-      <c r="M64" s="12">
+      <c r="M64" s="9">
         <f t="shared" si="12"/>
         <v>925320</v>
       </c>

--- a/project/fractal-parallel-tasks/test-plan-2.xlsx
+++ b/project/fractal-parallel-tasks/test-plan-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="image-size" sheetId="1" r:id="rId1"/>
@@ -1320,11 +1320,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1415006048"/>
-        <c:axId val="1414991904"/>
+        <c:axId val="-77692064"/>
+        <c:axId val="-77691520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1415006048"/>
+        <c:axId val="-77692064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1428,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1414991904"/>
+        <c:crossAx val="-77691520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1436,7 +1436,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1414991904"/>
+        <c:axId val="-77691520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1544,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1415006048"/>
+        <c:crossAx val="-77692064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1725,7 +1725,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$7:$D$19</c:f>
+              <c:f>iterations!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1841,7 +1841,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$7:$D$19</c:f>
+              <c:f>iterations!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1957,7 +1957,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$7:$D$19</c:f>
+              <c:f>iterations!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2073,7 +2073,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$7:$D$19</c:f>
+              <c:f>iterations!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2189,7 +2189,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$7:$D$19</c:f>
+              <c:f>iterations!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2294,11 +2294,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1455026960"/>
-        <c:axId val="1455034032"/>
+        <c:axId val="-34667824"/>
+        <c:axId val="-34666736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1455026960"/>
+        <c:axId val="-34667824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,7 +2402,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455034032"/>
+        <c:crossAx val="-34666736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2410,7 +2410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1455034032"/>
+        <c:axId val="-34666736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,7 +2518,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455026960"/>
+        <c:crossAx val="-34667824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2696,7 +2696,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$22:$D$34</c:f>
+              <c:f>iterations!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2812,7 +2812,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$22:$D$34</c:f>
+              <c:f>iterations!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2928,7 +2928,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$22:$D$34</c:f>
+              <c:f>iterations!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3044,7 +3044,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$22:$D$34</c:f>
+              <c:f>iterations!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3149,11 +3149,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1455025328"/>
-        <c:axId val="1455022608"/>
+        <c:axId val="-34660752"/>
+        <c:axId val="-34662384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1455025328"/>
+        <c:axId val="-34660752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3257,7 +3257,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455022608"/>
+        <c:crossAx val="-34662384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3265,7 +3265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1455022608"/>
+        <c:axId val="-34662384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3372,7 +3372,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455025328"/>
+        <c:crossAx val="-34660752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3560,7 +3560,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$52:$D$64</c:f>
+              <c:f>iterations!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3676,7 +3676,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$52:$D$64</c:f>
+              <c:f>iterations!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3792,7 +3792,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$52:$D$64</c:f>
+              <c:f>iterations!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3908,7 +3908,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$52:$D$64</c:f>
+              <c:f>iterations!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4013,11 +4013,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1455027504"/>
-        <c:axId val="1455025872"/>
+        <c:axId val="-34665104"/>
+        <c:axId val="-34665648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1455027504"/>
+        <c:axId val="-34665104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4121,7 +4121,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455025872"/>
+        <c:crossAx val="-34665648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4129,7 +4129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1455025872"/>
+        <c:axId val="-34665648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4237,7 +4237,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455027504"/>
+        <c:crossAx val="-34665104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4415,7 +4415,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$22:$D$34</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4531,7 +4531,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$22:$D$34</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4647,7 +4647,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$22:$D$34</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4763,7 +4763,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$22:$D$34</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4868,11 +4868,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1414994080"/>
-        <c:axId val="1255109920"/>
+        <c:axId val="-77687712"/>
+        <c:axId val="-77683904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1414994080"/>
+        <c:axId val="-77687712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4976,7 +4976,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1255109920"/>
+        <c:crossAx val="-77683904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4984,7 +4984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1255109920"/>
+        <c:axId val="-77683904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5091,7 +5091,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1414994080"/>
+        <c:crossAx val="-77687712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5273,7 +5273,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$52:$D$64</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5389,7 +5389,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$52:$D$64</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5505,7 +5505,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$52:$D$64</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5621,7 +5621,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'image-size'!$D$52:$D$64</c:f>
+              <c:f>'image-size'!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5726,11 +5726,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1255113728"/>
-        <c:axId val="1415004960"/>
+        <c:axId val="-77698592"/>
+        <c:axId val="-101023392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1255113728"/>
+        <c:axId val="-77698592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5834,7 +5834,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1415004960"/>
+        <c:crossAx val="-101023392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5842,7 +5842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1415004960"/>
+        <c:axId val="-101023392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5950,7 +5950,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1255113728"/>
+        <c:crossAx val="-77698592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6131,7 +6131,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]image-size'!$D$7:$D$19</c:f>
+              <c:f>rectangle!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6187,16 +6187,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0559838923537788</c:v>
+                  <c:v>1.9517168811103121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.234816409693221</c:v>
+                  <c:v>3.9297092898519632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.191363501922508</c:v>
+                  <c:v>5.9403656707341792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.086476642476752</c:v>
+                  <c:v>7.8693375580677207</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.9208530805687207</c:v>
@@ -6247,7 +6247,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]image-size'!$D$7:$D$19</c:f>
+              <c:f>rectangle!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6363,7 +6363,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]image-size'!$D$7:$D$19</c:f>
+              <c:f>rectangle!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6479,7 +6479,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]image-size'!$D$7:$D$19</c:f>
+              <c:f>rectangle!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -6584,11 +6584,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1455024240"/>
-        <c:axId val="1455033488"/>
+        <c:axId val="-101026656"/>
+        <c:axId val="-34661840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1455024240"/>
+        <c:axId val="-101026656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6692,7 +6692,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455033488"/>
+        <c:crossAx val="-34661840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6700,7 +6700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1455033488"/>
+        <c:axId val="-34661840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6808,7 +6808,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455024240"/>
+        <c:crossAx val="-101026656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6991,7 +6991,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]image-size'!$D$22:$D$34</c:f>
+              <c:f>rectangle!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -7047,16 +7047,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0279919461768894</c:v>
+                  <c:v>0.97585844055515603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0587041024233053</c:v>
+                  <c:v>0.9824273224629908</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0318939169870847</c:v>
+                  <c:v>0.9900609451223632</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.010809580309594</c:v>
+                  <c:v>0.98366719475846509</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.99208530805687212</c:v>
@@ -7107,7 +7107,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]image-size'!$D$22:$D$34</c:f>
+              <c:f>rectangle!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -7223,7 +7223,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]image-size'!$D$22:$D$34</c:f>
+              <c:f>rectangle!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -7328,11 +7328,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1455023696"/>
-        <c:axId val="1455036752"/>
+        <c:axId val="-34664016"/>
+        <c:axId val="-34661296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1455023696"/>
+        <c:axId val="-34664016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7436,7 +7436,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455036752"/>
+        <c:crossAx val="-34661296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7444,7 +7444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1455036752"/>
+        <c:axId val="-34661296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7551,7 +7551,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455023696"/>
+        <c:crossAx val="-34664016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7739,7 +7739,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]image-size'!$D$52:$D$64</c:f>
+              <c:f>rectangle!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -7795,16 +7795,16 @@
                   <c:v>293062</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>285082</c:v>
+                  <c:v>300312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>276812</c:v>
+                  <c:v>298304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>284004</c:v>
+                  <c:v>296004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>289928</c:v>
+                  <c:v>297928</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>295400</c:v>
@@ -7855,7 +7855,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]image-size'!$D$52:$D$64</c:f>
+              <c:f>rectangle!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -7971,7 +7971,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'[1]image-size'!$D$52:$D$64</c:f>
+              <c:f>rectangle!$D$7:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -8076,11 +8076,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1455037840"/>
-        <c:axId val="1455024784"/>
+        <c:axId val="-34663472"/>
+        <c:axId val="-34672720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1455037840"/>
+        <c:axId val="-34663472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8184,7 +8184,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455024784"/>
+        <c:crossAx val="-34672720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8192,7 +8192,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1455024784"/>
+        <c:axId val="-34672720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8300,7 +8300,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455037840"/>
+        <c:crossAx val="-34663472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8538,16 +8538,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0559838923537788</c:v>
+                  <c:v>1.9517168811103121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.234816409693221</c:v>
+                  <c:v>3.9297092898519632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.191363501922508</c:v>
+                  <c:v>5.9403656707341792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.086476642476752</c:v>
+                  <c:v>7.8693375580677207</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9.9208530805687207</c:v>
@@ -8935,11 +8935,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1455032400"/>
-        <c:axId val="1455031856"/>
+        <c:axId val="-34662928"/>
+        <c:axId val="-34667280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1455032400"/>
+        <c:axId val="-34662928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9043,7 +9043,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455031856"/>
+        <c:crossAx val="-34667280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9051,7 +9051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1455031856"/>
+        <c:axId val="-34667280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9159,7 +9159,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455032400"/>
+        <c:crossAx val="-34662928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9393,16 +9393,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0279919461768894</c:v>
+                  <c:v>0.97585844055515603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0587041024233053</c:v>
+                  <c:v>0.9824273224629908</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0318939169870847</c:v>
+                  <c:v>0.9900609451223632</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.010809580309594</c:v>
+                  <c:v>0.98366719475846509</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.99208530805687212</c:v>
@@ -9674,11 +9674,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1455037296"/>
-        <c:axId val="1455028592"/>
+        <c:axId val="-34666192"/>
+        <c:axId val="-34669456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1455037296"/>
+        <c:axId val="-34666192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9782,7 +9782,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455028592"/>
+        <c:crossAx val="-34669456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9790,7 +9790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1455028592"/>
+        <c:axId val="-34669456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9897,7 +9897,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455037296"/>
+        <c:crossAx val="-34666192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10135,16 +10135,16 @@
                   <c:v>293062</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>285082</c:v>
+                  <c:v>300312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>276812</c:v>
+                  <c:v>298304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>284004</c:v>
+                  <c:v>296004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>289928</c:v>
+                  <c:v>297928</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>295400</c:v>
@@ -10416,11 +10416,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1455035664"/>
-        <c:axId val="1455029136"/>
+        <c:axId val="-34671088"/>
+        <c:axId val="-34664560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1455035664"/>
+        <c:axId val="-34671088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10524,7 +10524,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455029136"/>
+        <c:crossAx val="-34664560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10532,7 +10532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1455029136"/>
+        <c:axId val="-34664560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10640,7 +10640,7 @@
             <a:endParaRPr lang="bg-BG"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1455035664"/>
+        <c:crossAx val="-34671088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18268,8 +18268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC37" sqref="AC37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19954,7 +19954,7 @@
         <v>24</v>
       </c>
       <c r="E49" s="1">
-        <v>17117</v>
+        <v>17137</v>
       </c>
       <c r="F49" s="1">
         <v>17256</v>
@@ -20568,8 +20568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20586,6 +20586,10 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -20699,32 +20703,32 @@
         <v>150418</v>
       </c>
       <c r="F8" s="1">
-        <v>142541</v>
+        <v>152541</v>
       </c>
       <c r="G8" s="1">
-        <v>146540</v>
+        <v>150540</v>
       </c>
       <c r="H8" s="1">
-        <v>145156</v>
+        <v>150156</v>
       </c>
       <c r="I8">
-        <v>142739</v>
+        <v>151739</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" ref="J8:J19" si="1">MIN(E8:I8)</f>
-        <v>142541</v>
+        <v>150156</v>
       </c>
       <c r="K8" s="7">
         <f>$J$7/J8</f>
-        <v>2.0559838923537788</v>
+        <v>1.9517168811103121</v>
       </c>
       <c r="L8" s="7">
         <f t="shared" ref="L8:L19" si="2">K8/D8</f>
-        <v>1.0279919461768894</v>
+        <v>0.97585844055515603</v>
       </c>
       <c r="M8" s="7">
         <f t="shared" si="0"/>
-        <v>285082</v>
+        <v>300312</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -20736,35 +20740,35 @@
         <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>71646</v>
+        <v>75646</v>
       </c>
       <c r="F9" s="1">
-        <v>69948</v>
+        <v>75948</v>
       </c>
       <c r="G9" s="1">
-        <v>69203</v>
+        <v>76203</v>
       </c>
       <c r="H9" s="1">
-        <v>70556</v>
+        <v>74576</v>
       </c>
       <c r="I9">
-        <v>70065</v>
+        <v>75065</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="1"/>
-        <v>69203</v>
+        <v>74576</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" ref="K9:K19" si="3">$J$7/J9</f>
-        <v>4.234816409693221</v>
+        <v>3.9297092898519632</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="2"/>
-        <v>1.0587041024233053</v>
+        <v>0.9824273224629908</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" si="0"/>
-        <v>276812</v>
+        <v>298304</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -20776,35 +20780,35 @@
         <v>6</v>
       </c>
       <c r="E10" s="1">
-        <v>47334</v>
+        <v>49334</v>
       </c>
       <c r="F10" s="1">
-        <v>47356</v>
+        <v>50356</v>
       </c>
       <c r="G10" s="1">
-        <v>47756</v>
+        <v>49756</v>
       </c>
       <c r="H10" s="1">
-        <v>47611</v>
+        <v>49611</v>
       </c>
       <c r="I10">
-        <v>47612</v>
+        <v>50612</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="1"/>
-        <v>47334</v>
+        <v>49334</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="3"/>
-        <v>6.191363501922508</v>
+        <v>5.9403656707341792</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="2"/>
-        <v>1.0318939169870847</v>
+        <v>0.9900609451223632</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="0"/>
-        <v>284004</v>
+        <v>296004</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -20816,35 +20820,35 @@
         <v>8</v>
       </c>
       <c r="E11" s="1">
-        <v>36241</v>
+        <v>37241</v>
       </c>
       <c r="F11" s="1">
-        <v>36462</v>
+        <v>38462</v>
       </c>
       <c r="G11" s="1">
-        <v>36504</v>
+        <v>37504</v>
       </c>
       <c r="H11" s="1">
-        <v>36362</v>
+        <v>37362</v>
       </c>
       <c r="I11">
-        <v>36291</v>
+        <v>37291</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="1"/>
-        <v>36241</v>
+        <v>37241</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="3"/>
-        <v>8.086476642476752</v>
+        <v>7.8693375580677207</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" si="2"/>
-        <v>1.010809580309594</v>
+        <v>0.98366719475846509</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" si="0"/>
-        <v>289928</v>
+        <v>297928</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -22484,8 +22488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
